--- a/exp2/case03/report/motivation/interest-enjoyment/MeasurementModel.xlsx
+++ b/exp2/case03/report/motivation/interest-enjoyment/MeasurementModel.xlsx
@@ -4522,25 +4522,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="n" s="273">
-        <v>1.0340386984692456</v>
+        <v>1.0576858124041157</v>
       </c>
       <c r="C33" t="n" s="274">
-        <v>0.20499998886255405</v>
+        <v>0.3063143683497286</v>
       </c>
       <c r="D33" t="n" s="275">
-        <v>0.8375721337267226</v>
+        <v>0.7593653003241315</v>
       </c>
       <c r="E33" t="n" s="276">
         <v>1.0</v>
       </c>
       <c r="F33" t="n" s="277">
-        <v>1.0420737929475208</v>
+        <v>1.0571499585809085</v>
       </c>
       <c r="G33" t="n" s="278">
-        <v>0.24775249855725096</v>
+        <v>0.3141582447921943</v>
       </c>
       <c r="H33" t="n" s="279">
-        <v>0.8043259098530788</v>
+        <v>0.753400854158541</v>
       </c>
       <c r="I33" t="n" s="280">
         <v>1.0</v>
@@ -4551,28 +4551,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n" s="273">
-        <v>0.6349649524050784</v>
+        <v>0.6232627765286318</v>
       </c>
       <c r="C34" t="n" s="274">
-        <v>-1.8839407883213555</v>
+        <v>-1.9647887229492655</v>
       </c>
       <c r="D34" t="n" s="275">
-        <v>0.0595729851845281</v>
+        <v>0.04943869595284555</v>
       </c>
       <c r="E34" t="n" s="276">
-        <v>0.4147525020926913</v>
+        <v>0.34607087166991884</v>
       </c>
       <c r="F34" t="n" s="277">
-        <v>0.6372813877241609</v>
+        <v>0.6253300935527097</v>
       </c>
       <c r="G34" t="n" s="278">
-        <v>-1.9811916097227495</v>
+        <v>-2.0653101537937526</v>
       </c>
       <c r="H34" t="n" s="279">
-        <v>0.04756978979134967</v>
+        <v>0.03889366345038924</v>
       </c>
       <c r="I34" t="n" s="280">
-        <v>0.428128108122147</v>
+        <v>0.3500429710535032</v>
       </c>
     </row>
     <row r="35">
@@ -4580,28 +4580,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n" s="273">
-        <v>1.3244166547434477</v>
+        <v>1.332228914004241</v>
       </c>
       <c r="C35" t="n" s="274">
-        <v>1.3196370363396146</v>
+        <v>1.3503207160778852</v>
       </c>
       <c r="D35" t="n" s="275">
-        <v>0.18695623117876203</v>
+        <v>0.17691313012067666</v>
       </c>
       <c r="E35" t="n" s="276">
-        <v>0.9347811558938102</v>
+        <v>0.8845656506033833</v>
       </c>
       <c r="F35" t="n" s="277">
-        <v>1.3886468822697156</v>
+        <v>1.3928471570237861</v>
       </c>
       <c r="G35" t="n" s="278">
-        <v>1.6883095336836773</v>
+        <v>1.7067416276127108</v>
       </c>
       <c r="H35" t="n" s="279">
-        <v>0.09135182608458811</v>
+        <v>0.08787008627436471</v>
       </c>
       <c r="I35" t="n" s="280">
-        <v>0.6418560616093305</v>
+        <v>0.615090603920553</v>
       </c>
     </row>
     <row r="36">
@@ -4609,25 +4609,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="n" s="273">
-        <v>0.7423975147374873</v>
+        <v>0.7478945618571557</v>
       </c>
       <c r="C36" t="n" s="274">
-        <v>-1.2166680564894627</v>
+        <v>-1.1884360711037174</v>
       </c>
       <c r="D36" t="n" s="275">
-        <v>0.22373053744534155</v>
+        <v>0.2346616523145769</v>
       </c>
       <c r="E36" t="n" s="276">
-        <v>0.9347811558938102</v>
+        <v>0.9386466092583076</v>
       </c>
       <c r="F36" t="n" s="277">
-        <v>0.7622537742942191</v>
+        <v>0.7695433885551807</v>
       </c>
       <c r="G36" t="n" s="278">
-        <v>-1.1922523925417656</v>
+        <v>-1.1510549776757062</v>
       </c>
       <c r="H36" t="n" s="279">
-        <v>0.23316229555442283</v>
+        <v>0.24970961849892243</v>
       </c>
       <c r="I36" t="n" s="280">
         <v>1.0</v>
@@ -4638,25 +4638,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="n" s="273">
-        <v>1.1119528861948784</v>
+        <v>1.0949354681831653</v>
       </c>
       <c r="C37" t="n" s="274">
-        <v>0.543892309485698</v>
+        <v>0.4743345465202443</v>
       </c>
       <c r="D37" t="n" s="275">
-        <v>0.5865155814371629</v>
+        <v>0.6352613600032619</v>
       </c>
       <c r="E37" t="n" s="276">
         <v>1.0</v>
       </c>
       <c r="F37" t="n" s="277">
-        <v>1.0730011943117113</v>
+        <v>1.0652747731350112</v>
       </c>
       <c r="G37" t="n" s="278">
-        <v>0.39341760268527814</v>
+        <v>0.3577499703023428</v>
       </c>
       <c r="H37" t="n" s="279">
-        <v>0.6940110706272826</v>
+        <v>0.7205304337302287</v>
       </c>
       <c r="I37" t="n" s="280">
         <v>1.0</v>
@@ -4667,10 +4667,10 @@
         <v>58</v>
       </c>
       <c r="B38" t="n" s="273">
-        <v>0.34107858569076416</v>
+        <v>0.423338883264038</v>
       </c>
       <c r="C38" t="n" s="274">
-        <v>19164.952685414195</v>
+        <v>17205.465725583323</v>
       </c>
       <c r="D38" t="n" s="275">
         <v>0.0</v>
@@ -4679,13 +4679,13 @@
         <v>0.0</v>
       </c>
       <c r="F38" t="n" s="277">
-        <v>0.7917441993221421</v>
+        <v>0.7743303421125964</v>
       </c>
       <c r="G38" t="n" s="278">
-        <v>-0.424360238629894</v>
+        <v>-0.4505178028042563</v>
       </c>
       <c r="H38" t="n" s="279">
-        <v>0.6713031137535719</v>
+        <v>0.6523371203437764</v>
       </c>
       <c r="I38" t="n" s="280">
         <v>1.0</v>
@@ -4696,28 +4696,28 @@
         <v>59</v>
       </c>
       <c r="B39" t="n" s="273">
-        <v>1.2508113315933034</v>
+        <v>1.2605016888105987</v>
       </c>
       <c r="C39" t="n" s="274">
-        <v>16.441129646007596</v>
+        <v>15.139523518308298</v>
       </c>
       <c r="D39" t="n" s="275">
-        <v>9.709214289337624E-61</v>
+        <v>8.885513171971422E-52</v>
       </c>
       <c r="E39" t="n" s="276">
-        <v>8.738292860403861E-60</v>
+        <v>7.99696185477428E-51</v>
       </c>
       <c r="F39" t="n" s="277">
-        <v>1.411424694250253</v>
+        <v>1.4011095440841637</v>
       </c>
       <c r="G39" t="n" s="278">
-        <v>2.4423698306312884</v>
+        <v>2.4021502903391188</v>
       </c>
       <c r="H39" t="n" s="279">
-        <v>0.01459119050921244</v>
+        <v>0.01629901052391672</v>
       </c>
       <c r="I39" t="n" s="280">
-        <v>0.1459119050921244</v>
+        <v>0.1629901052391672</v>
       </c>
     </row>
     <row r="40">
@@ -4725,28 +4725,28 @@
         <v>60</v>
       </c>
       <c r="B40" t="n" s="273">
-        <v>0.9681676946592871</v>
+        <v>0.9574522287654096</v>
       </c>
       <c r="C40" t="n" s="274">
-        <v>1.8863310511808489</v>
+        <v>1.7831012987941393</v>
       </c>
       <c r="D40" t="n" s="275">
-        <v>0.05925035744181305</v>
+        <v>0.07456981506968825</v>
       </c>
       <c r="E40" t="n" s="276">
-        <v>0.4147525020926913</v>
+        <v>0.44741889041812954</v>
       </c>
       <c r="F40" t="n" s="277">
-        <v>1.211791234210948</v>
+        <v>1.190779023782657</v>
       </c>
       <c r="G40" t="n" s="278">
-        <v>1.5064581672510327</v>
+        <v>1.3997467235321064</v>
       </c>
       <c r="H40" t="n" s="279">
-        <v>0.13194959825628788</v>
+        <v>0.16158917680241383</v>
       </c>
       <c r="I40" t="n" s="280">
-        <v>0.7916975895377273</v>
+        <v>0.969535060814483</v>
       </c>
     </row>
     <row r="41">
@@ -4754,28 +4754,28 @@
         <v>61</v>
       </c>
       <c r="B41" t="n" s="273">
-        <v>1.1817925535648053</v>
+        <v>1.2259712097091475</v>
       </c>
       <c r="C41" t="n" s="274">
-        <v>1.003083447042026</v>
+        <v>0.9053777290604301</v>
       </c>
       <c r="D41" t="n" s="275">
-        <v>0.31582060060162903</v>
+        <v>0.3652653101756857</v>
       </c>
       <c r="E41" t="n" s="276">
-        <v>0.947461801804887</v>
+        <v>1.0</v>
       </c>
       <c r="F41" t="n" s="277">
-        <v>1.2787694790600632</v>
+        <v>1.2975173255466765</v>
       </c>
       <c r="G41" t="n" s="278">
-        <v>2.8627114809228327</v>
+        <v>3.0347041920180042</v>
       </c>
       <c r="H41" t="n" s="279">
-        <v>0.004200328491529822</v>
+        <v>0.0024077170909642077</v>
       </c>
       <c r="I41" t="n" s="280">
-        <v>0.04620361340682804</v>
+        <v>0.026484888000606284</v>
       </c>
     </row>
     <row r="42">
@@ -4783,25 +4783,25 @@
         <v>62</v>
       </c>
       <c r="B42" t="n" s="273">
-        <v>0.8922233237513719</v>
+        <v>0.8921358612004794</v>
       </c>
       <c r="C42" t="n" s="274">
-        <v>13.661366104588414</v>
+        <v>10.540062127321939</v>
       </c>
       <c r="D42" t="n" s="275">
-        <v>1.7271292007476132E-42</v>
+        <v>5.64615868786011E-26</v>
       </c>
       <c r="E42" t="n" s="276">
-        <v>1.3817033605980906E-41</v>
+        <v>4.516926950288088E-25</v>
       </c>
       <c r="F42" t="n" s="277">
-        <v>1.1102099600956095</v>
+        <v>1.104181956385851</v>
       </c>
       <c r="G42" t="n" s="278">
-        <v>1.0761024342266277</v>
+        <v>1.014980401379487</v>
       </c>
       <c r="H42" t="n" s="279">
-        <v>0.281881447132575</v>
+        <v>0.3101151699244887</v>
       </c>
       <c r="I42" t="n" s="280">
         <v>1.0</v>
@@ -4812,10 +4812,10 @@
         <v>63</v>
       </c>
       <c r="B43" t="n" s="273">
-        <v>2.0814021115559163</v>
+        <v>1.9907033603218973</v>
       </c>
       <c r="C43" t="n" s="274">
-        <v>349.4029702688749</v>
+        <v>225.839804663452</v>
       </c>
       <c r="D43" t="n" s="275">
         <v>0.0</v>
@@ -4824,16 +4824,16 @@
         <v>0.0</v>
       </c>
       <c r="F43" t="n" s="277">
-        <v>1.3549028090670472</v>
+        <v>1.4073657752187942</v>
       </c>
       <c r="G43" t="n" s="278">
-        <v>1.7493414927230935</v>
+        <v>1.9951486593124916</v>
       </c>
       <c r="H43" t="n" s="279">
-        <v>0.08023200770116631</v>
+        <v>0.046026668620642</v>
       </c>
       <c r="I43" t="n" s="280">
-        <v>0.6418560616093305</v>
+        <v>0.368213348965136</v>
       </c>
     </row>
     <row r="44">

--- a/exp2/case03/report/motivation/interest-enjoyment/MeasurementModel.xlsx
+++ b/exp2/case03/report/motivation/interest-enjoyment/MeasurementModel.xlsx
@@ -2418,7 +2418,7 @@
         <v>47.0</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>0.8712404763990308</v>
+        <v>0.8712404763990307</v>
       </c>
       <c r="F6" t="n" s="36">
         <v>21.0</v>
@@ -2458,10 +2458,10 @@
         <v>0.1524489412396589</v>
       </c>
       <c r="B11" t="n" s="57">
-        <v>0.290701879877861</v>
+        <v>0.29070187987786067</v>
       </c>
       <c r="C11" t="n" s="58">
-        <v>0.5381805518361908</v>
+        <v>0.5381805518361935</v>
       </c>
     </row>
     <row r="12">
@@ -2492,7 +2492,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n" s="77">
-        <v>101.31330118379744</v>
+        <v>101.31330118379736</v>
       </c>
       <c r="B16" t="n" s="78">
         <v>10.0</v>
@@ -2529,13 +2529,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n" s="98">
-        <v>12.139166676597938</v>
+        <v>12.13916667659821</v>
       </c>
       <c r="B21" t="n" s="99">
-        <v>0.06468233711217965</v>
+        <v>0.06468233711217979</v>
       </c>
       <c r="C21" t="n" s="100">
-        <v>0.0853876284842631</v>
+        <v>0.08538762848426339</v>
       </c>
     </row>
     <row r="22">
@@ -2596,10 +2596,10 @@
         <v>42.0</v>
       </c>
       <c r="F26" t="n" s="124">
-        <v>30.977202337029304</v>
+        <v>30.977202337029365</v>
       </c>
       <c r="G26" t="n" s="125">
-        <v>0.8949229515897091</v>
+        <v>0.8949229515897078</v>
       </c>
       <c r="H26" t="n" s="126">
         <v>1.0</v>
@@ -2622,7 +2622,7 @@
         <v>49.0</v>
       </c>
       <c r="F27" t="n" s="124">
-        <v>101.31330118379744</v>
+        <v>101.31330118379736</v>
       </c>
       <c r="G27" t="n" s="125">
         <v>1.649427420047367E-5</v>
@@ -2648,10 +2648,10 @@
         <v>49.0</v>
       </c>
       <c r="F28" t="n" s="124">
-        <v>27.71924308371886</v>
+        <v>27.719243083718887</v>
       </c>
       <c r="G28" t="n" s="125">
-        <v>0.9938853067508113</v>
+        <v>0.9938853067508112</v>
       </c>
       <c r="H28" t="n" s="126">
         <v>1.0</v>
@@ -2674,10 +2674,10 @@
         <v>42.0</v>
       </c>
       <c r="F29" t="n" s="124">
-        <v>39.874736198600026</v>
+        <v>39.87473619860005</v>
       </c>
       <c r="G29" t="n" s="125">
-        <v>0.5646563268463063</v>
+        <v>0.5646563268463054</v>
       </c>
       <c r="H29" t="n" s="126">
         <v>1.0</v>
@@ -2700,10 +2700,10 @@
         <v>42.0</v>
       </c>
       <c r="F30" t="n" s="124">
-        <v>31.408034623418395</v>
+        <v>31.408034623418423</v>
       </c>
       <c r="G30" t="n" s="125">
-        <v>0.8841036994147824</v>
+        <v>0.8841036994147821</v>
       </c>
       <c r="H30" t="n" s="126">
         <v>1.0</v>
@@ -2726,10 +2726,10 @@
         <v>42.0</v>
       </c>
       <c r="F31" t="n" s="124">
-        <v>26.56627660547537</v>
+        <v>26.5662766054754</v>
       </c>
       <c r="G31" t="n" s="125">
-        <v>0.9695963799771949</v>
+        <v>0.9695963799771946</v>
       </c>
       <c r="H31" t="n" s="126">
         <v>1.0</v>
@@ -2752,7 +2752,7 @@
         <v>36.0</v>
       </c>
       <c r="F32" t="n" s="124">
-        <v>69.30015063531992</v>
+        <v>69.30015063531974</v>
       </c>
       <c r="G32" t="n" s="125">
         <v>7.064212591864072E-4</v>
@@ -2778,10 +2778,10 @@
         <v>49.0</v>
       </c>
       <c r="F33" t="n" s="124">
-        <v>44.47357669728023</v>
+        <v>44.473576697280265</v>
       </c>
       <c r="G33" t="n" s="125">
-        <v>0.6569628988293392</v>
+        <v>0.6569628988293378</v>
       </c>
       <c r="H33" t="n" s="126">
         <v>1.0</v>
@@ -2804,10 +2804,10 @@
         <v>42.0</v>
       </c>
       <c r="F34" t="n" s="124">
-        <v>41.76022435472241</v>
+        <v>41.760224354722325</v>
       </c>
       <c r="G34" t="n" s="125">
-        <v>0.48139862109266396</v>
+        <v>0.4813986210926675</v>
       </c>
       <c r="H34" t="n" s="126">
         <v>1.0</v>
@@ -2830,13 +2830,13 @@
         <v>42.0</v>
       </c>
       <c r="F35" t="n" s="124">
-        <v>64.48264611479959</v>
+        <v>64.48264611479948</v>
       </c>
       <c r="G35" t="n" s="125">
-        <v>0.014418290848865811</v>
+        <v>0.014418290848866144</v>
       </c>
       <c r="H35" t="n" s="126">
-        <v>0.11534632679092649</v>
+        <v>0.11534632679092915</v>
       </c>
     </row>
     <row r="36">
@@ -2873,16 +2873,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n" s="145">
-        <v>1.4229005990114745</v>
+        <v>1.4229005990114727</v>
       </c>
       <c r="B40" t="n" s="146">
-        <v>-0.0769443070984277</v>
+        <v>-0.07694430709842859</v>
       </c>
       <c r="C40" t="n" s="147">
         <v>-0.7828327134406532</v>
       </c>
       <c r="D40" t="n" s="148">
-        <v>-0.08734152173319831</v>
+        <v>-0.08734152173320009</v>
       </c>
       <c r="E40" t="n" s="149">
         <v>-0.11707795429044143</v>
@@ -2907,50 +2907,50 @@
     </row>
     <row r="42">
       <c r="A42" t="n" s="145">
-        <v>1.4508621825684092</v>
+        <v>1.450862182568411</v>
       </c>
       <c r="B42" t="n" s="146">
-        <v>0.12860441069340034</v>
+        <v>0.12860441069340123</v>
       </c>
       <c r="C42" t="n" s="147">
-        <v>-0.6682407531420989</v>
+        <v>-0.6682407531420971</v>
       </c>
       <c r="D42" t="n" s="148">
-        <v>-0.006808323456530374</v>
+        <v>-0.006808323456531262</v>
       </c>
       <c r="E42" t="n" s="149">
-        <v>0.09130786971078475</v>
+        <v>0.09130786971078564</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n" s="145">
-        <v>1.0365952643327088</v>
+        <v>1.0365952643327105</v>
       </c>
       <c r="B43" t="n" s="146">
         <v>-0.40265740319886767</v>
       </c>
       <c r="C43" t="n" s="147">
-        <v>-1.1335094872006275</v>
+        <v>-1.1335094872006266</v>
       </c>
       <c r="D43" t="n" s="148">
-        <v>-0.44209612223678985</v>
+        <v>-0.44209612223679073</v>
       </c>
       <c r="E43" t="n" s="149">
-        <v>1.5579127579281096</v>
+        <v>1.5579127579281105</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="145">
-        <v>-0.3934514679922758</v>
+        <v>-0.3934514679922776</v>
       </c>
       <c r="B44" t="n" s="146">
-        <v>0.08946293818727291</v>
+        <v>0.08946293818727247</v>
       </c>
       <c r="C44" t="n" s="147">
-        <v>0.3987694047261039</v>
+        <v>0.3987694047261048</v>
       </c>
       <c r="D44" t="n" s="148">
-        <v>0.08693063305589721</v>
+        <v>0.08693063305589632</v>
       </c>
       <c r="E44" t="n" s="149">
         <v>0.04837068663419464</v>
@@ -2958,19 +2958,19 @@
     </row>
     <row r="45">
       <c r="A45" t="n" s="145">
-        <v>-0.21814384431917855</v>
+        <v>-0.2181438443191812</v>
       </c>
       <c r="B45" t="n" s="146">
-        <v>0.258502558295326</v>
+        <v>0.25850255829532554</v>
       </c>
       <c r="C45" t="n" s="147">
-        <v>-0.4139835230802378</v>
+        <v>-0.41398352308023645</v>
       </c>
       <c r="D45" t="n" s="148">
         <v>0.26104203684362215</v>
       </c>
       <c r="E45" t="n" s="149">
-        <v>0.21583212705180976</v>
+        <v>0.2158321270518102</v>
       </c>
     </row>
     <row r="46">
@@ -2978,30 +2978,30 @@
         <v>-1.3934514679922767</v>
       </c>
       <c r="B46" t="n" s="146">
-        <v>-0.9105370618127275</v>
+        <v>-0.9105370618127266</v>
       </c>
       <c r="C46" t="n" s="147">
-        <v>2.398769404726103</v>
+        <v>2.3987694047261052</v>
       </c>
       <c r="D46" t="n" s="148">
-        <v>0.08693063305589677</v>
+        <v>0.08693063305589588</v>
       </c>
       <c r="E46" t="n" s="149">
-        <v>0.048370686634193305</v>
+        <v>0.04837068663419375</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="145">
-        <v>-1.0848903547497435</v>
+        <v>-1.0848903547497457</v>
       </c>
       <c r="B47" t="n" s="146">
-        <v>0.5153172405418993</v>
+        <v>0.5153172405418998</v>
       </c>
       <c r="C47" t="n" s="147">
-        <v>-0.09694519127633905</v>
+        <v>-0.0969451912763386</v>
       </c>
       <c r="D47" t="n" s="148">
-        <v>0.5264837960151243</v>
+        <v>0.5264837960151256</v>
       </c>
       <c r="E47" t="n" s="149">
         <v>-0.539921103906464</v>
@@ -3009,16 +3009,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n" s="145">
-        <v>-0.4187870611095388</v>
+        <v>-0.41878706110953967</v>
       </c>
       <c r="B48" t="n" s="146">
         <v>0.14718911026588133</v>
       </c>
       <c r="C48" t="n" s="147">
-        <v>0.5505853792997466</v>
+        <v>0.5505853792997479</v>
       </c>
       <c r="D48" t="n" s="148">
-        <v>0.15806864605462367</v>
+        <v>0.15806864605462456</v>
       </c>
       <c r="E48" t="n" s="149">
         <v>-0.9072313100552214</v>
@@ -3026,16 +3026,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n" s="145">
-        <v>-0.21814384431918032</v>
+        <v>-0.2181438443191812</v>
       </c>
       <c r="B49" t="n" s="146">
-        <v>0.258502558295326</v>
+        <v>0.2585025582953251</v>
       </c>
       <c r="C49" t="n" s="147">
-        <v>0.5860164769197618</v>
+        <v>0.5860164769197636</v>
       </c>
       <c r="D49" t="n" s="148">
-        <v>-0.7389579631563779</v>
+        <v>-0.7389579631563783</v>
       </c>
       <c r="E49" t="n" s="149">
         <v>0.21583212705180976</v>
@@ -3043,16 +3043,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n" s="145">
-        <v>0.8393102659672635</v>
+        <v>0.8393102659672618</v>
       </c>
       <c r="B50" t="n" s="146">
-        <v>-0.5619216539754319</v>
+        <v>-0.5619216539754328</v>
       </c>
       <c r="C50" t="n" s="147">
         <v>0.6924424776899496</v>
       </c>
       <c r="D50" t="n" s="148">
-        <v>-1.6252248949354406</v>
+        <v>-1.6252248949354415</v>
       </c>
       <c r="E50" t="n" s="149">
         <v>1.3989477851136964</v>
@@ -3060,33 +3060,33 @@
     </row>
     <row r="51">
       <c r="A51" t="n" s="145">
-        <v>2.110071772736604</v>
+        <v>2.1100717727366027</v>
       </c>
       <c r="B51" t="n" s="146">
-        <v>0.6057302431709983</v>
+        <v>0.6057302431709979</v>
       </c>
       <c r="C51" t="n" s="147">
-        <v>-2.0259918519943114</v>
+        <v>-2.025991851994311</v>
       </c>
       <c r="D51" t="n" s="148">
-        <v>-0.3863609164057893</v>
+        <v>-0.38636091640578973</v>
       </c>
       <c r="E51" t="n" s="149">
-        <v>-0.4417069994841034</v>
+        <v>-0.44170699948410297</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="145">
-        <v>0.11007177273660451</v>
+        <v>0.11007177273660407</v>
       </c>
       <c r="B52" t="n" s="146">
-        <v>-0.39426975682900123</v>
+        <v>-0.3942697568290021</v>
       </c>
       <c r="C52" t="n" s="147">
-        <v>0.9740081480056881</v>
+        <v>0.9740081480056899</v>
       </c>
       <c r="D52" t="n" s="148">
-        <v>-0.38636091640578885</v>
+        <v>-0.3863609164057902</v>
       </c>
       <c r="E52" t="n" s="149">
         <v>-0.44170699948410386</v>
@@ -3094,50 +3094,50 @@
     </row>
     <row r="53">
       <c r="A53" t="n" s="145">
-        <v>1.0958019129006114</v>
+        <v>1.0958019129006096</v>
       </c>
       <c r="B53" t="n" s="146">
-        <v>-0.30213272160016924</v>
+        <v>-0.3021327216001679</v>
       </c>
       <c r="C53" t="n" s="147">
-        <v>-0.9363172934316439</v>
+        <v>-0.9363172934316428</v>
       </c>
       <c r="D53" t="n" s="148">
-        <v>-0.2912939047725005</v>
+        <v>-0.29129390477249917</v>
       </c>
       <c r="E53" t="n" s="149">
-        <v>-0.3558118835061874</v>
+        <v>-0.35581188350618653</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="145">
-        <v>-0.7331429447355924</v>
+        <v>-0.7331429447355919</v>
       </c>
       <c r="B54" t="n" s="146">
-        <v>-0.2164687480071259</v>
+        <v>-0.21646874800712457</v>
       </c>
       <c r="C54" t="n" s="147">
-        <v>-0.8304662044325926</v>
+        <v>-0.8304662044325903</v>
       </c>
       <c r="D54" t="n" s="148">
-        <v>0.7928571189466744</v>
+        <v>0.7928571189466762</v>
       </c>
       <c r="E54" t="n" s="149">
-        <v>0.7334075956675004</v>
+        <v>0.7334075956675012</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n" s="145">
-        <v>0.09580191290061135</v>
+        <v>0.09580191290060913</v>
       </c>
       <c r="B55" t="n" s="146">
-        <v>0.6978672783998308</v>
+        <v>0.6978672783998316</v>
       </c>
       <c r="C55" t="n" s="147">
-        <v>-0.9363172934316437</v>
+        <v>-0.9363172934316435</v>
       </c>
       <c r="D55" t="n" s="148">
-        <v>-0.2912939047725005</v>
+        <v>-0.29129390477249917</v>
       </c>
       <c r="E55" t="n" s="149">
         <v>-0.3558118835061874</v>
@@ -3145,16 +3145,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n" s="145">
-        <v>-0.05083568025764862</v>
+        <v>-0.050835680257650395</v>
       </c>
       <c r="B56" t="n" s="146">
         <v>0.4305562732775279</v>
       </c>
       <c r="C56" t="n" s="147">
-        <v>0.7784039473339774</v>
+        <v>0.7784039473339788</v>
       </c>
       <c r="D56" t="n" s="148">
-        <v>1.4363455138045937</v>
+        <v>1.4363455138045933</v>
       </c>
       <c r="E56" t="n" s="149">
         <v>-2.6142902847886256</v>
@@ -3162,36 +3162,36 @@
     </row>
     <row r="57">
       <c r="A57" t="n" s="145">
-        <v>-1.0533125823278797</v>
+        <v>-1.053312582327881</v>
       </c>
       <c r="B57" t="n" s="146">
         <v>0.3942508677336998</v>
       </c>
       <c r="C57" t="n" s="147">
-        <v>-0.3995340779415293</v>
+        <v>-0.39953407794152973</v>
       </c>
       <c r="D57" t="n" s="148">
-        <v>-0.5989997359266876</v>
+        <v>-0.5989997359266863</v>
       </c>
       <c r="E57" t="n" s="149">
-        <v>0.36031373341140727</v>
+        <v>0.36031373341140815</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n" s="145">
-        <v>1.2668570552644085</v>
+        <v>1.2668570552644067</v>
       </c>
       <c r="B58" t="n" s="146">
-        <v>-0.21646874800712546</v>
+        <v>-0.216468748007125</v>
       </c>
       <c r="C58" t="n" s="147">
-        <v>1.1695337955674083</v>
+        <v>1.1695337955674092</v>
       </c>
       <c r="D58" t="n" s="148">
-        <v>-1.2071428810533251</v>
+        <v>-1.2071428810533247</v>
       </c>
       <c r="E58" t="n" s="149">
-        <v>-1.2665924043324996</v>
+        <v>-1.2665924043325</v>
       </c>
     </row>
     <row r="59">
@@ -3202,10 +3202,10 @@
         <v>2.0894629381872734</v>
       </c>
       <c r="C59" t="n" s="147">
-        <v>1.3987694047261048</v>
+        <v>1.3987694047261043</v>
       </c>
       <c r="D59" t="n" s="148">
-        <v>-0.9130693669441028</v>
+        <v>-0.9130693669441041</v>
       </c>
       <c r="E59" t="n" s="149">
         <v>-1.9516293133658058</v>
@@ -3213,33 +3213,33 @@
     </row>
     <row r="60">
       <c r="A60" t="n" s="145">
-        <v>0.5812129388904621</v>
+        <v>0.5812129388904599</v>
       </c>
       <c r="B60" t="n" s="146">
         <v>0.14718911026588177</v>
       </c>
       <c r="C60" t="n" s="147">
-        <v>-1.4494146207002525</v>
+        <v>-1.449414620700252</v>
       </c>
       <c r="D60" t="n" s="148">
-        <v>0.15806864605462367</v>
+        <v>0.1580686460546259</v>
       </c>
       <c r="E60" t="n" s="149">
-        <v>0.09276868994477905</v>
+        <v>0.09276868994477949</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n" s="145">
-        <v>0.232086949274116</v>
+        <v>0.23208694927411688</v>
       </c>
       <c r="B61" t="n" s="146">
-        <v>-0.2409783733334958</v>
+        <v>-0.2409783733334967</v>
       </c>
       <c r="C61" t="n" s="147">
-        <v>-0.9595851008133018</v>
+        <v>-0.9595851008133014</v>
       </c>
       <c r="D61" t="n" s="148">
-        <v>0.7367689840461962</v>
+        <v>0.7367689840461971</v>
       </c>
       <c r="E61" t="n" s="149">
         <v>0.7193577065303467</v>
@@ -3247,36 +3247,36 @@
     </row>
     <row r="62">
       <c r="A62" t="n" s="145">
-        <v>0.45086218256840915</v>
+        <v>0.45086218256841004</v>
       </c>
       <c r="B62" t="n" s="146">
-        <v>0.12860441069340034</v>
+        <v>0.12860441069339945</v>
       </c>
       <c r="C62" t="n" s="147">
         <v>1.331759246857902</v>
       </c>
       <c r="D62" t="n" s="148">
-        <v>0.9931916765434696</v>
+        <v>0.9931916765434678</v>
       </c>
       <c r="E62" t="n" s="149">
-        <v>-1.9086921302892152</v>
+        <v>-1.9086921302892144</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n" s="145">
-        <v>-0.5772978345352504</v>
+        <v>-0.5772978345352513</v>
       </c>
       <c r="B63" t="n" s="146">
         <v>-0.03607331486121712</v>
       </c>
       <c r="C63" t="n" s="147">
-        <v>0.36224330761841816</v>
+        <v>0.3622433076184195</v>
       </c>
       <c r="D63" t="n" s="148">
-        <v>-0.025796766660513004</v>
+        <v>-0.025796766660512116</v>
       </c>
       <c r="E63" t="n" s="149">
-        <v>-0.08862817908996767</v>
+        <v>-0.08862817908996723</v>
       </c>
     </row>
     <row r="64">
@@ -3287,89 +3287,89 @@
         <v>0.9230556929015723</v>
       </c>
       <c r="C64" t="n" s="147">
-        <v>1.2171672865593464</v>
+        <v>1.2171672865593473</v>
       </c>
       <c r="D64" t="n" s="148">
-        <v>-0.08734152173319831</v>
+        <v>-0.0873415217331992</v>
       </c>
       <c r="E64" t="n" s="149">
-        <v>-0.11707795429044143</v>
+        <v>-0.11707795429044054</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n" s="145">
-        <v>-0.3934514679922758</v>
+        <v>-0.3934514679922776</v>
       </c>
       <c r="B65" t="n" s="146">
-        <v>0.08946293818727424</v>
+        <v>0.08946293818727247</v>
       </c>
       <c r="C65" t="n" s="147">
-        <v>-0.6012305952738957</v>
+        <v>-0.6012305952738966</v>
       </c>
       <c r="D65" t="n" s="148">
-        <v>1.0869306330558968</v>
+        <v>1.086930633055895</v>
       </c>
       <c r="E65" t="n" s="149">
-        <v>0.04837068663419419</v>
+        <v>0.04837068663419375</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n" s="145">
-        <v>-0.21814384431917855</v>
+        <v>-0.2181438443191812</v>
       </c>
       <c r="B66" t="n" s="146">
-        <v>0.258502558295326</v>
+        <v>0.25850255829532554</v>
       </c>
       <c r="C66" t="n" s="147">
-        <v>-0.4139835230802378</v>
+        <v>-0.41398352308023645</v>
       </c>
       <c r="D66" t="n" s="148">
         <v>0.26104203684362215</v>
       </c>
       <c r="E66" t="n" s="149">
-        <v>0.21583212705180976</v>
+        <v>0.2158321270518102</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n" s="145">
-        <v>-0.7106217187466548</v>
+        <v>-0.7106217187466575</v>
       </c>
       <c r="B67" t="n" s="146">
         <v>-0.12064064910502381</v>
       </c>
       <c r="C67" t="n" s="147">
-        <v>0.21444877640465076</v>
+        <v>0.214448776404651</v>
       </c>
       <c r="D67" t="n" s="148">
         <v>-0.11043603558897885</v>
       </c>
       <c r="E67" t="n" s="149">
-        <v>-0.17133076468068298</v>
+        <v>-0.1713307646806821</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n" s="145">
-        <v>-0.5741028677062914</v>
+        <v>-0.5741028677062927</v>
       </c>
       <c r="B68" t="n" s="146">
-        <v>-0.3076856192921471</v>
+        <v>-0.3076856192921469</v>
       </c>
       <c r="C68" t="n" s="147">
-        <v>-0.1987343634301566</v>
+        <v>-0.19873436343015705</v>
       </c>
       <c r="D68" t="n" s="148">
-        <v>-0.30400072407466583</v>
+        <v>-0.3040007240746654</v>
       </c>
       <c r="E68" t="n" s="149">
-        <v>-0.3263444871556629</v>
+        <v>-0.32634448715566267</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n" s="145">
-        <v>0.26685705526440806</v>
+        <v>0.2668570552644076</v>
       </c>
       <c r="B69" t="n" s="146">
-        <v>-0.21646874800712546</v>
+        <v>-0.21646874800712457</v>
       </c>
       <c r="C69" t="n" s="147">
         <v>-1.8304662044325917</v>
@@ -3378,35 +3378,35 @@
         <v>0.7928571189466744</v>
       </c>
       <c r="E69" t="n" s="149">
-        <v>0.7334075956675012</v>
+        <v>0.7334075956675004</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n" s="145">
-        <v>0.18662740202122619</v>
+        <v>0.1866274020212253</v>
       </c>
       <c r="B70" t="n" s="146">
-        <v>-0.450174586217029</v>
+        <v>-0.45017458621702877</v>
       </c>
       <c r="C70" t="n" s="147">
-        <v>-0.2931904569871746</v>
+        <v>-0.2931904569871744</v>
       </c>
       <c r="D70" t="n" s="148">
-        <v>-0.44494077242374286</v>
+        <v>-0.44494077242374264</v>
       </c>
       <c r="E70" t="n" s="149">
-        <v>-0.47659159143468344</v>
+        <v>-0.476591591434683</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n" s="145">
-        <v>0.23208694927411688</v>
+        <v>0.232086949274116</v>
       </c>
       <c r="B71" t="n" s="146">
-        <v>0.7590216266665033</v>
+        <v>0.7590216266665024</v>
       </c>
       <c r="C71" t="n" s="147">
-        <v>-0.9595851008133027</v>
+        <v>-0.9595851008133018</v>
       </c>
       <c r="D71" t="n" s="148">
         <v>-0.2632310159538047</v>
@@ -3417,33 +3417,33 @@
     </row>
     <row r="72">
       <c r="A72" t="n" s="145">
-        <v>-1.3569243457018736</v>
+        <v>-1.3569243457018727</v>
       </c>
       <c r="B72" t="n" s="146">
-        <v>0.2815314459125826</v>
+        <v>0.2815314459125817</v>
       </c>
       <c r="C72" t="n" s="147">
         <v>2.5151028624590586</v>
       </c>
       <c r="D72" t="n" s="148">
-        <v>-0.8134611564565519</v>
+        <v>-0.8134611564565528</v>
       </c>
       <c r="E72" t="n" s="149">
-        <v>0.24303963284022423</v>
+        <v>0.24303963284022334</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n" s="145">
-        <v>0.03659526433270788</v>
+        <v>0.036595264332709654</v>
       </c>
       <c r="B73" t="n" s="146">
-        <v>0.5973425968011314</v>
+        <v>0.5973425968011323</v>
       </c>
       <c r="C73" t="n" s="147">
-        <v>-0.1335094872006275</v>
+        <v>-0.1335094872006266</v>
       </c>
       <c r="D73" t="n" s="148">
-        <v>0.5579038777632093</v>
+        <v>0.557903877763211</v>
       </c>
       <c r="E73" t="n" s="149">
         <v>-0.44208724207189043</v>
@@ -3451,16 +3451,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n" s="145">
-        <v>-0.3934514679922758</v>
+        <v>-0.3934514679922776</v>
       </c>
       <c r="B74" t="n" s="146">
-        <v>0.08946293818727291</v>
+        <v>0.08946293818727247</v>
       </c>
       <c r="C74" t="n" s="147">
-        <v>0.3987694047261039</v>
+        <v>0.3987694047261048</v>
       </c>
       <c r="D74" t="n" s="148">
-        <v>0.08693063305589721</v>
+        <v>0.08693063305589632</v>
       </c>
       <c r="E74" t="n" s="149">
         <v>0.04837068663419464</v>
@@ -3468,16 +3468,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n" s="145">
-        <v>0.5812129388904617</v>
+        <v>0.5812129388904603</v>
       </c>
       <c r="B75" t="n" s="146">
-        <v>-1.8528108897341187</v>
+        <v>-1.8528108897341182</v>
       </c>
       <c r="C75" t="n" s="147">
-        <v>-1.4494146207002534</v>
+        <v>-1.449414620700252</v>
       </c>
       <c r="D75" t="n" s="148">
-        <v>1.1580686460546237</v>
+        <v>1.1580686460546246</v>
       </c>
       <c r="E75" t="n" s="149">
         <v>1.0927686899447786</v>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n" s="145">
-        <v>-0.41878706110953834</v>
+        <v>-0.418787061109541</v>
       </c>
       <c r="B76" t="n" s="146">
         <v>0.14718911026588177</v>
@@ -3494,10 +3494,10 @@
         <v>-0.4494146207002525</v>
       </c>
       <c r="D76" t="n" s="148">
-        <v>0.15806864605462367</v>
+        <v>0.15806864605462456</v>
       </c>
       <c r="E76" t="n" s="149">
-        <v>0.09276868994477905</v>
+        <v>0.0927686899447786</v>
       </c>
     </row>
     <row r="77">
@@ -3505,7 +3505,7 @@
         <v>0.45086218256840915</v>
       </c>
       <c r="B77" t="n" s="146">
-        <v>0.12860441069340123</v>
+        <v>0.12860441069340034</v>
       </c>
       <c r="C77" t="n" s="147">
         <v>0.33175924685790115</v>
@@ -3514,21 +3514,21 @@
         <v>-0.006808323456531262</v>
       </c>
       <c r="E77" t="n" s="149">
-        <v>0.09130786971078386</v>
+        <v>0.09130786971078564</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n" s="145">
-        <v>-0.3934514679922758</v>
+        <v>-0.3934514679922776</v>
       </c>
       <c r="B78" t="n" s="146">
-        <v>0.08946293818727291</v>
+        <v>0.08946293818727247</v>
       </c>
       <c r="C78" t="n" s="147">
-        <v>0.3987694047261039</v>
+        <v>0.3987694047261048</v>
       </c>
       <c r="D78" t="n" s="148">
-        <v>0.08693063305589721</v>
+        <v>0.08693063305589632</v>
       </c>
       <c r="E78" t="n" s="149">
         <v>0.04837068663419464</v>
@@ -3536,19 +3536,19 @@
     </row>
     <row r="79">
       <c r="A79" t="n" s="145">
-        <v>1.715145017781866</v>
+        <v>1.7151450177818646</v>
       </c>
       <c r="B79" t="n" s="146">
-        <v>-0.7705834897818695</v>
+        <v>-0.7705834897818684</v>
       </c>
       <c r="C79" t="n" s="147">
-        <v>-0.5168981609668444</v>
+        <v>-0.5168981609668439</v>
       </c>
       <c r="D79" t="n" s="148">
-        <v>-0.7624576504763048</v>
+        <v>-0.7624576504763032</v>
       </c>
       <c r="E79" t="n" s="149">
-        <v>-0.8112742251654477</v>
+        <v>-0.8112742251654474</v>
       </c>
     </row>
     <row r="80">
@@ -3556,118 +3556,118 @@
         <v>1.0365952643327097</v>
       </c>
       <c r="B80" t="n" s="146">
-        <v>-0.40265740319886767</v>
+        <v>-0.4026574031988668</v>
       </c>
       <c r="C80" t="n" s="147">
-        <v>0.8664905127993725</v>
+        <v>0.8664905127993734</v>
       </c>
       <c r="D80" t="n" s="148">
         <v>-1.4420961222367898</v>
       </c>
       <c r="E80" t="n" s="149">
-        <v>0.5579127579281105</v>
+        <v>0.5579127579281096</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n" s="145">
-        <v>-0.05331258232787972</v>
+        <v>-0.05331258232788105</v>
       </c>
       <c r="B81" t="n" s="146">
-        <v>-0.6057491322663002</v>
+        <v>-0.6057491322663004</v>
       </c>
       <c r="C81" t="n" s="147">
         <v>-0.3995340779415295</v>
       </c>
       <c r="D81" t="n" s="148">
-        <v>-0.5989997359266879</v>
+        <v>-0.5989997359266868</v>
       </c>
       <c r="E81" t="n" s="149">
-        <v>0.3603137334114075</v>
+        <v>0.36031373341140793</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n" s="145">
-        <v>0.036595264332708766</v>
+        <v>0.036595264332709654</v>
       </c>
       <c r="B82" t="n" s="146">
-        <v>-0.40265740319886856</v>
+        <v>-0.40265740319886767</v>
       </c>
       <c r="C82" t="n" s="147">
-        <v>-0.13350948720062839</v>
+        <v>-0.13350948720062572</v>
       </c>
       <c r="D82" t="n" s="148">
         <v>0.5579038777632102</v>
       </c>
       <c r="E82" t="n" s="149">
-        <v>0.5579127579281096</v>
+        <v>0.5579127579281105</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n" s="145">
-        <v>-0.9634047356672912</v>
+        <v>-0.9634047356672895</v>
       </c>
       <c r="B83" t="n" s="146">
-        <v>-0.40265740319886856</v>
+        <v>-0.40265740319886767</v>
       </c>
       <c r="C83" t="n" s="147">
-        <v>1.8664905127993725</v>
+        <v>1.8664905127993743</v>
       </c>
       <c r="D83" t="n" s="148">
-        <v>-0.44209612223678985</v>
+        <v>-0.44209612223678896</v>
       </c>
       <c r="E83" t="n" s="149">
-        <v>0.5579127579281096</v>
+        <v>0.5579127579281105</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n" s="145">
-        <v>0.2320869492741151</v>
+        <v>0.232086949274116</v>
       </c>
       <c r="B84" t="n" s="146">
         <v>-0.2409783733334976</v>
       </c>
       <c r="C84" t="n" s="147">
-        <v>0.04041489918669772</v>
+        <v>0.040414899186698605</v>
       </c>
       <c r="D84" t="n" s="148">
-        <v>-0.2632310159538038</v>
+        <v>-0.2632310159538047</v>
       </c>
       <c r="E84" t="n" s="149">
-        <v>0.7193577065303449</v>
+        <v>0.7193577065303467</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n" s="145">
-        <v>-1.5770994009885255</v>
+        <v>-1.5770994009885273</v>
       </c>
       <c r="B85" t="n" s="146">
-        <v>-1.0769443070984277</v>
+        <v>-1.0769443070984286</v>
       </c>
       <c r="C85" t="n" s="147">
-        <v>0.21716728655934636</v>
+        <v>0.21716728655934725</v>
       </c>
       <c r="D85" t="n" s="148">
-        <v>0.9126584782668017</v>
+        <v>0.9126584782668008</v>
       </c>
       <c r="E85" t="n" s="149">
-        <v>1.8829220457095595</v>
+        <v>1.8829220457095586</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n" s="145">
-        <v>-0.21814384431917855</v>
+        <v>-0.2181438443191812</v>
       </c>
       <c r="B86" t="n" s="146">
-        <v>0.258502558295326</v>
+        <v>0.25850255829532554</v>
       </c>
       <c r="C86" t="n" s="147">
-        <v>-0.4139835230802378</v>
+        <v>-0.41398352308023645</v>
       </c>
       <c r="D86" t="n" s="148">
         <v>0.26104203684362215</v>
       </c>
       <c r="E86" t="n" s="149">
-        <v>0.21583212705180976</v>
+        <v>0.2158321270518102</v>
       </c>
     </row>
     <row r="87">
@@ -3982,28 +3982,28 @@
         <v>4.0638297872340425</v>
       </c>
       <c r="D6" t="n" s="195">
-        <v>-1.6746322185207367</v>
+        <v>-1.674632218520728</v>
       </c>
       <c r="E6" t="n" s="196">
-        <v>-11.625492728034848</v>
+        <v>-11.625492728034782</v>
       </c>
       <c r="F6" t="n" s="197">
-        <v>-13.705301686408818</v>
+        <v>-13.70530168640875</v>
       </c>
       <c r="G6" t="n" s="198">
-        <v>-15.706696084604657</v>
+        <v>-15.706696084604587</v>
       </c>
       <c r="H6" t="n" s="199">
-        <v>-16.78474525670008</v>
+        <v>-16.784745256700017</v>
       </c>
       <c r="I6" t="n" s="200">
-        <v>-15.867278062184075</v>
+        <v>-15.867278062184011</v>
       </c>
       <c r="J6" t="n" s="201">
-        <v>-14.322642939110029</v>
+        <v>-14.322642939109965</v>
       </c>
       <c r="K6" t="n" s="202">
-        <v>-11.722425529645157</v>
+        <v>-11.722425529645097</v>
       </c>
       <c r="L6" t="n" s="203">
         <v>1.0</v>
@@ -4038,25 +4038,25 @@
         <v>3.5319148936170213</v>
       </c>
       <c r="D7" t="n" s="195">
-        <v>-1.776338699782521</v>
+        <v>-1.7763386997825104</v>
       </c>
       <c r="E7" t="n" s="196">
-        <v>-11.01472427129903</v>
+        <v>-11.014724271298965</v>
       </c>
       <c r="F7" t="n" s="197">
-        <v>-12.483764772937183</v>
+        <v>-12.483764772937116</v>
       </c>
       <c r="G7" t="n" s="198">
-        <v>-13.874390714397205</v>
+        <v>-13.874390714397135</v>
       </c>
       <c r="H7" t="n" s="199">
-        <v>-14.34167142975681</v>
+        <v>-14.341671429756742</v>
       </c>
       <c r="I7" t="n" s="200">
-        <v>-12.813435778504985</v>
+        <v>-12.813435778504921</v>
       </c>
       <c r="J7" t="n" s="201">
-        <v>-10.658032198695127</v>
+        <v>-10.658032198695063</v>
       </c>
       <c r="K7" s="202"/>
       <c r="L7" t="n" s="203">
@@ -4092,28 +4092,28 @@
         <v>3.234042553191489</v>
       </c>
       <c r="D8" t="n" s="195">
-        <v>-0.6572802565491145</v>
+        <v>-0.6572802565491047</v>
       </c>
       <c r="E8" t="n" s="196">
-        <v>-10.608140766063226</v>
+        <v>-10.608140766063158</v>
       </c>
       <c r="F8" t="n" s="197">
-        <v>-11.670597762465574</v>
+        <v>-11.670597762465505</v>
       </c>
       <c r="G8" t="n" s="198">
-        <v>-12.654640198689789</v>
+        <v>-12.654640198689718</v>
       </c>
       <c r="H8" t="n" s="199">
-        <v>-12.715337408813589</v>
+        <v>-12.715337408813518</v>
       </c>
       <c r="I8" t="n" s="200">
-        <v>-10.78051825232596</v>
+        <v>-10.780518252325889</v>
       </c>
       <c r="J8" t="n" s="201">
-        <v>-8.218531167280291</v>
+        <v>-8.218531167280222</v>
       </c>
       <c r="K8" t="n" s="202">
-        <v>-4.600961795843801</v>
+        <v>-4.600961795843733</v>
       </c>
       <c r="L8" t="n" s="203">
         <v>1.0</v>
@@ -4148,28 +4148,28 @@
         <v>3.5531914893617023</v>
       </c>
       <c r="D9" t="n" s="195">
-        <v>-1.0525175265807076</v>
+        <v>-1.0525175265806983</v>
       </c>
       <c r="E9" t="n" s="196">
-        <v>-11.00337803609482</v>
+        <v>-11.003378036094754</v>
       </c>
       <c r="F9" t="n" s="197">
-        <v>-12.46107230252876</v>
+        <v>-12.461072302528692</v>
       </c>
       <c r="G9" t="n" s="198">
-        <v>-13.840352008784569</v>
+        <v>-13.840352008784498</v>
       </c>
       <c r="H9" t="n" s="199">
-        <v>-14.296286488939963</v>
+        <v>-14.296286488939892</v>
       </c>
       <c r="I9" t="n" s="200">
-        <v>-12.756704602483927</v>
+        <v>-12.756704602483858</v>
       </c>
       <c r="J9" t="n" s="201">
-        <v>-10.589954787469852</v>
+        <v>-10.589954787469788</v>
       </c>
       <c r="K9" t="n" s="202">
-        <v>-7.367622686064953</v>
+        <v>-7.367622686064888</v>
       </c>
       <c r="L9" t="n" s="203">
         <v>1.0</v>
@@ -4204,25 +4204,25 @@
         <v>3.574468085106383</v>
       </c>
       <c r="D10" t="n" s="195">
-        <v>-1.831942767066373</v>
+        <v>-1.8319427670663613</v>
       </c>
       <c r="E10" t="n" s="196">
-        <v>-11.070328338582883</v>
+        <v>-11.070328338582817</v>
       </c>
       <c r="F10" t="n" s="197">
-        <v>-12.594972907504888</v>
+        <v>-12.59497290750482</v>
       </c>
       <c r="G10" t="n" s="198">
-        <v>-14.041202916248759</v>
+        <v>-14.041202916248688</v>
       </c>
       <c r="H10" t="n" s="199">
-        <v>-14.564087698892216</v>
+        <v>-14.564087698892147</v>
       </c>
       <c r="I10" t="n" s="200">
-        <v>-13.091456114924245</v>
+        <v>-13.091456114924178</v>
       </c>
       <c r="J10" t="n" s="201">
-        <v>-10.991656602398239</v>
+        <v>-10.991656602398168</v>
       </c>
       <c r="K10" s="202"/>
       <c r="L10" t="n" s="203">
@@ -4438,7 +4438,7 @@
         <v>31</v>
       </c>
       <c r="B24" t="n" s="253">
-        <v>-0.7526007277660264</v>
+        <v>-0.752600727766028</v>
       </c>
     </row>
     <row r="25">
@@ -4446,7 +4446,7 @@
         <v>32</v>
       </c>
       <c r="B25" t="n" s="253">
-        <v>-0.6990622478365659</v>
+        <v>-0.6990622478365653</v>
       </c>
     </row>
     <row r="26">
@@ -4454,7 +4454,7 @@
         <v>33</v>
       </c>
       <c r="B26" t="n" s="253">
-        <v>0.2667036502587911</v>
+        <v>0.26670365025879206</v>
       </c>
     </row>
     <row r="27">
@@ -4462,7 +4462,7 @@
         <v>34</v>
       </c>
       <c r="B27" t="n" s="253">
-        <v>-0.13159716266371796</v>
+        <v>-0.13159716266371824</v>
       </c>
     </row>
     <row r="28">
@@ -4470,7 +4470,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="n" s="253">
-        <v>-0.7518579211233976</v>
+        <v>-0.7518579211233973</v>
       </c>
     </row>
     <row r="29">
@@ -4522,25 +4522,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="n" s="273">
-        <v>1.0576858124041157</v>
+        <v>1.053209346059066</v>
       </c>
       <c r="C33" t="n" s="274">
-        <v>0.3063143683497286</v>
+        <v>0.2898339281478124</v>
       </c>
       <c r="D33" t="n" s="275">
-        <v>0.7593653003241315</v>
+        <v>0.7719432904676005</v>
       </c>
       <c r="E33" t="n" s="276">
         <v>1.0</v>
       </c>
       <c r="F33" t="n" s="277">
-        <v>1.0571499585809085</v>
+        <v>1.050860147218586</v>
       </c>
       <c r="G33" t="n" s="278">
-        <v>0.3141582447921943</v>
+        <v>0.2911896858127891</v>
       </c>
       <c r="H33" t="n" s="279">
-        <v>0.753400854158541</v>
+        <v>0.7709062504869637</v>
       </c>
       <c r="I33" t="n" s="280">
         <v>1.0</v>
@@ -4551,28 +4551,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n" s="273">
-        <v>0.6232627765286318</v>
+        <v>0.6277501499675333</v>
       </c>
       <c r="C34" t="n" s="274">
-        <v>-1.9647887229492655</v>
+        <v>-1.924345257070706</v>
       </c>
       <c r="D34" t="n" s="275">
-        <v>0.04943869595284555</v>
+        <v>0.054311321332676646</v>
       </c>
       <c r="E34" t="n" s="276">
-        <v>0.34607087166991884</v>
+        <v>0.38017924932873653</v>
       </c>
       <c r="F34" t="n" s="277">
-        <v>0.6253300935527097</v>
+        <v>0.6365664848817448</v>
       </c>
       <c r="G34" t="n" s="278">
-        <v>-2.0653101537937526</v>
+        <v>-1.9822579316187268</v>
       </c>
       <c r="H34" t="n" s="279">
-        <v>0.03889366345038924</v>
+        <v>0.047450379811828654</v>
       </c>
       <c r="I34" t="n" s="280">
-        <v>0.3500429710535032</v>
+        <v>0.4270534183064579</v>
       </c>
     </row>
     <row r="35">
@@ -4580,28 +4580,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n" s="273">
-        <v>1.332228914004241</v>
+        <v>1.3568119831492484</v>
       </c>
       <c r="C35" t="n" s="274">
-        <v>1.3503207160778852</v>
+        <v>1.435746666236511</v>
       </c>
       <c r="D35" t="n" s="275">
-        <v>0.17691313012067666</v>
+        <v>0.1510744409996273</v>
       </c>
       <c r="E35" t="n" s="276">
-        <v>0.8845656506033833</v>
+        <v>0.7553722049981365</v>
       </c>
       <c r="F35" t="n" s="277">
-        <v>1.3928471570237861</v>
+        <v>1.416838140855781</v>
       </c>
       <c r="G35" t="n" s="278">
-        <v>1.7067416276127108</v>
+        <v>1.7945785367138847</v>
       </c>
       <c r="H35" t="n" s="279">
-        <v>0.08787008627436471</v>
+        <v>0.07272087533416907</v>
       </c>
       <c r="I35" t="n" s="280">
-        <v>0.615090603920553</v>
+        <v>0.5817670026733526</v>
       </c>
     </row>
     <row r="36">
@@ -4609,25 +4609,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="n" s="273">
-        <v>0.7478945618571557</v>
+        <v>0.7255647624723357</v>
       </c>
       <c r="C36" t="n" s="274">
-        <v>-1.1884360711037174</v>
+        <v>-1.3016335165511812</v>
       </c>
       <c r="D36" t="n" s="275">
-        <v>0.2346616523145769</v>
+        <v>0.19304169659498127</v>
       </c>
       <c r="E36" t="n" s="276">
-        <v>0.9386466092583076</v>
+        <v>0.7721667863799251</v>
       </c>
       <c r="F36" t="n" s="277">
-        <v>0.7695433885551807</v>
+        <v>0.7471723198621869</v>
       </c>
       <c r="G36" t="n" s="278">
-        <v>-1.1510549776757062</v>
+        <v>-1.2716155047961204</v>
       </c>
       <c r="H36" t="n" s="279">
-        <v>0.24970961849892243</v>
+        <v>0.20350976511175334</v>
       </c>
       <c r="I36" t="n" s="280">
         <v>1.0</v>
@@ -4638,25 +4638,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="n" s="273">
-        <v>1.0949354681831653</v>
+        <v>1.0998462723285163</v>
       </c>
       <c r="C37" t="n" s="274">
-        <v>0.4743345465202443</v>
+        <v>0.48910803431829675</v>
       </c>
       <c r="D37" t="n" s="275">
-        <v>0.6352613600032619</v>
+        <v>0.62476521368776</v>
       </c>
       <c r="E37" t="n" s="276">
         <v>1.0</v>
       </c>
       <c r="F37" t="n" s="277">
-        <v>1.0652747731350112</v>
+        <v>1.0652766634788635</v>
       </c>
       <c r="G37" t="n" s="278">
-        <v>0.3577499703023428</v>
+        <v>0.3534935786875408</v>
       </c>
       <c r="H37" t="n" s="279">
-        <v>0.7205304337302287</v>
+        <v>0.7237184419117273</v>
       </c>
       <c r="I37" t="n" s="280">
         <v>1.0</v>
@@ -4667,25 +4667,19 @@
         <v>58</v>
       </c>
       <c r="B38" t="n" s="273">
-        <v>0.423338883264038</v>
-      </c>
-      <c r="C38" t="n" s="274">
-        <v>17205.465725583323</v>
-      </c>
-      <c r="D38" t="n" s="275">
-        <v>0.0</v>
-      </c>
-      <c r="E38" t="n" s="276">
-        <v>0.0</v>
-      </c>
+        <v>0.38695753639384683</v>
+      </c>
+      <c r="C38" s="274"/>
+      <c r="D38" s="275"/>
+      <c r="E38" s="276"/>
       <c r="F38" t="n" s="277">
-        <v>0.7743303421125964</v>
+        <v>0.7883156177333163</v>
       </c>
       <c r="G38" t="n" s="278">
-        <v>-0.4505178028042563</v>
+        <v>-0.4174407894378073</v>
       </c>
       <c r="H38" t="n" s="279">
-        <v>0.6523371203437764</v>
+        <v>0.6763560249635538</v>
       </c>
       <c r="I38" t="n" s="280">
         <v>1.0</v>
@@ -4696,28 +4690,28 @@
         <v>59</v>
       </c>
       <c r="B39" t="n" s="273">
-        <v>1.2605016888105987</v>
+        <v>1.3026431164511278</v>
       </c>
       <c r="C39" t="n" s="274">
-        <v>15.139523518308298</v>
+        <v>15.94689347203704</v>
       </c>
       <c r="D39" t="n" s="275">
-        <v>8.885513171971422E-52</v>
+        <v>2.9942530984576316E-57</v>
       </c>
       <c r="E39" t="n" s="276">
-        <v>7.99696185477428E-51</v>
+        <v>2.6948277886118684E-56</v>
       </c>
       <c r="F39" t="n" s="277">
-        <v>1.4011095440841637</v>
+        <v>1.4043656168244503</v>
       </c>
       <c r="G39" t="n" s="278">
-        <v>2.4021502903391188</v>
+        <v>2.3675470223741977</v>
       </c>
       <c r="H39" t="n" s="279">
-        <v>0.01629901052391672</v>
+        <v>0.017906444423313735</v>
       </c>
       <c r="I39" t="n" s="280">
-        <v>0.1629901052391672</v>
+        <v>0.17906444423313736</v>
       </c>
     </row>
     <row r="40">
@@ -4725,28 +4719,28 @@
         <v>60</v>
       </c>
       <c r="B40" t="n" s="273">
-        <v>0.9574522287654096</v>
+        <v>0.9691574543200588</v>
       </c>
       <c r="C40" t="n" s="274">
-        <v>1.7831012987941393</v>
+        <v>1.7931254383667103</v>
       </c>
       <c r="D40" t="n" s="275">
-        <v>0.07456981506968825</v>
+        <v>0.07295286891739178</v>
       </c>
       <c r="E40" t="n" s="276">
-        <v>0.44741889041812954</v>
+        <v>0.43771721350435067</v>
       </c>
       <c r="F40" t="n" s="277">
-        <v>1.190779023782657</v>
+        <v>1.201176723987425</v>
       </c>
       <c r="G40" t="n" s="278">
-        <v>1.3997467235321064</v>
+        <v>1.4117176965042308</v>
       </c>
       <c r="H40" t="n" s="279">
-        <v>0.16158917680241383</v>
+        <v>0.1580331005780984</v>
       </c>
       <c r="I40" t="n" s="280">
-        <v>0.969535060814483</v>
+        <v>0.9481986034685905</v>
       </c>
     </row>
     <row r="41">
@@ -4754,28 +4748,28 @@
         <v>61</v>
       </c>
       <c r="B41" t="n" s="273">
-        <v>1.2259712097091475</v>
+        <v>1.2918248062671136</v>
       </c>
       <c r="C41" t="n" s="274">
-        <v>0.9053777290604301</v>
+        <v>0.9812059342254573</v>
       </c>
       <c r="D41" t="n" s="275">
-        <v>0.3652653101756857</v>
+        <v>0.3264911983881907</v>
       </c>
       <c r="E41" t="n" s="276">
-        <v>1.0</v>
+        <v>0.9794735951645721</v>
       </c>
       <c r="F41" t="n" s="277">
-        <v>1.2975173255466765</v>
+        <v>1.303401038481771</v>
       </c>
       <c r="G41" t="n" s="278">
-        <v>3.0347041920180042</v>
+        <v>3.1072453719141317</v>
       </c>
       <c r="H41" t="n" s="279">
-        <v>0.0024077170909642077</v>
+        <v>0.0018883958659887592</v>
       </c>
       <c r="I41" t="n" s="280">
-        <v>0.026484888000606284</v>
+        <v>0.02077235452587635</v>
       </c>
     </row>
     <row r="42">
@@ -4783,25 +4777,25 @@
         <v>62</v>
       </c>
       <c r="B42" t="n" s="273">
-        <v>0.8921358612004794</v>
+        <v>0.9190698048615901</v>
       </c>
       <c r="C42" t="n" s="274">
-        <v>10.540062127321939</v>
+        <v>11.989474705530876</v>
       </c>
       <c r="D42" t="n" s="275">
-        <v>5.64615868786011E-26</v>
+        <v>4.03455531464663E-33</v>
       </c>
       <c r="E42" t="n" s="276">
-        <v>4.516926950288088E-25</v>
+        <v>3.227644251717304E-32</v>
       </c>
       <c r="F42" t="n" s="277">
-        <v>1.104181956385851</v>
+        <v>1.111122581403997</v>
       </c>
       <c r="G42" t="n" s="278">
-        <v>1.014980401379487</v>
+        <v>1.05941366343819</v>
       </c>
       <c r="H42" t="n" s="279">
-        <v>0.3101151699244887</v>
+        <v>0.28941142974815426</v>
       </c>
       <c r="I42" t="n" s="280">
         <v>1.0</v>
@@ -4812,10 +4806,10 @@
         <v>63</v>
       </c>
       <c r="B43" t="n" s="273">
-        <v>1.9907033603218973</v>
+        <v>1.9314347224046753</v>
       </c>
       <c r="C43" t="n" s="274">
-        <v>225.839804663452</v>
+        <v>287.69241408824865</v>
       </c>
       <c r="D43" t="n" s="275">
         <v>0.0</v>
@@ -4824,16 +4818,16 @@
         <v>0.0</v>
       </c>
       <c r="F43" t="n" s="277">
-        <v>1.4073657752187942</v>
+        <v>1.3185548773475992</v>
       </c>
       <c r="G43" t="n" s="278">
-        <v>1.9951486593124916</v>
+        <v>1.578021790992437</v>
       </c>
       <c r="H43" t="n" s="279">
-        <v>0.046026668620642</v>
+        <v>0.11456060375885412</v>
       </c>
       <c r="I43" t="n" s="280">
-        <v>0.368213348965136</v>
+        <v>0.8019242263119788</v>
       </c>
     </row>
     <row r="44">
@@ -6587,16 +6581,16 @@
         <v>1.0</v>
       </c>
       <c r="H2" t="n" s="306">
-        <v>0.6708695525176149</v>
+        <v>0.6708695525176146</v>
       </c>
       <c r="I2" t="n" s="307">
-        <v>-0.2979541037098452</v>
+        <v>-0.29795410370984643</v>
       </c>
       <c r="J2" t="n" s="308">
-        <v>0.7263037548796133</v>
+        <v>0.7263037548796121</v>
       </c>
       <c r="K2" t="n" s="309">
-        <v>-0.20045353907665195</v>
+        <v>-0.20045353907665442</v>
       </c>
     </row>
     <row r="3">
@@ -6622,16 +6616,16 @@
         <v>2.0</v>
       </c>
       <c r="H3" t="n" s="306">
-        <v>0.6499306082021639</v>
+        <v>0.6499306082021665</v>
       </c>
       <c r="I3" t="n" s="307">
-        <v>-0.43765056498390953</v>
+        <v>-0.4376505649839014</v>
       </c>
       <c r="J3" t="n" s="308">
-        <v>0.6878786025114395</v>
+        <v>0.6878786025114412</v>
       </c>
       <c r="K3" t="n" s="309">
-        <v>-0.368159931006236</v>
+        <v>-0.36815993100623035</v>
       </c>
     </row>
     <row r="4">
@@ -6657,16 +6651,16 @@
         <v>3.0</v>
       </c>
       <c r="H4" t="n" s="306">
-        <v>0.5371534061921551</v>
+        <v>0.5371534061921556</v>
       </c>
       <c r="I4" t="n" s="307">
-        <v>-0.8792988816720295</v>
+        <v>-0.8792988816720284</v>
       </c>
       <c r="J4" t="n" s="308">
-        <v>0.5746820741557156</v>
+        <v>0.5746820741557163</v>
       </c>
       <c r="K4" t="n" s="309">
-        <v>-0.7511518223434365</v>
+        <v>-0.7511518223434347</v>
       </c>
     </row>
     <row r="5">
@@ -6692,16 +6686,16 @@
         <v>4.0</v>
       </c>
       <c r="H5" t="n" s="306">
-        <v>1.3173625199083965</v>
+        <v>1.3173625199083996</v>
       </c>
       <c r="I5" t="n" s="307">
-        <v>0.6755754555162198</v>
+        <v>0.6755754555162229</v>
       </c>
       <c r="J5" t="n" s="308">
-        <v>1.275379472217864</v>
+        <v>1.275379472217866</v>
       </c>
       <c r="K5" t="n" s="309">
-        <v>0.6185057387088602</v>
+        <v>0.6185057387088623</v>
       </c>
     </row>
     <row r="6">
@@ -6727,16 +6721,16 @@
         <v>5.0</v>
       </c>
       <c r="H6" t="n" s="306">
-        <v>0.07492514263346661</v>
+        <v>0.07492514263346686</v>
       </c>
       <c r="I6" t="n" s="307">
         <v>-2.136713719397404</v>
       </c>
       <c r="J6" t="n" s="308">
-        <v>0.07899969173221383</v>
+        <v>0.07899969173221404</v>
       </c>
       <c r="K6" t="n" s="309">
-        <v>-2.108304960970224</v>
+        <v>-2.1083049609702242</v>
       </c>
     </row>
     <row r="7">
@@ -6762,16 +6756,16 @@
         <v>6.0</v>
       </c>
       <c r="H7" t="n" s="306">
-        <v>0.10103751785173268</v>
+        <v>0.10103751785173246</v>
       </c>
       <c r="I7" t="n" s="307">
-        <v>-1.9537835300028057</v>
+        <v>-1.9537835300028066</v>
       </c>
       <c r="J7" t="n" s="308">
-        <v>0.1044121301983533</v>
+        <v>0.10441213019835313</v>
       </c>
       <c r="K7" t="n" s="309">
-        <v>-1.9365319389113413</v>
+        <v>-1.9365319389113418</v>
       </c>
     </row>
     <row r="8">
@@ -6797,16 +6791,16 @@
         <v>7.0</v>
       </c>
       <c r="H8" t="n" s="306">
-        <v>2.193582413256806</v>
+        <v>2.1935824132568063</v>
       </c>
       <c r="I8" t="n" s="307">
-        <v>1.4745542606785347</v>
+        <v>1.4745542606785353</v>
       </c>
       <c r="J8" t="n" s="308">
-        <v>2.27983338140133</v>
+        <v>2.279833381401329</v>
       </c>
       <c r="K8" t="n" s="309">
-        <v>1.5447314348220298</v>
+        <v>1.5447314348220293</v>
       </c>
     </row>
     <row r="9">
@@ -6832,16 +6826,16 @@
         <v>8.0</v>
       </c>
       <c r="H9" t="n" s="306">
-        <v>0.393253393759935</v>
+        <v>0.39325339375993523</v>
       </c>
       <c r="I9" t="n" s="307">
-        <v>-1.4304496784479328</v>
+        <v>-1.4304496784479315</v>
       </c>
       <c r="J9" t="n" s="308">
-        <v>0.3984640199754679</v>
+        <v>0.3984640199754683</v>
       </c>
       <c r="K9" t="n" s="309">
-        <v>-1.4187061369313505</v>
+        <v>-1.4187061369313492</v>
       </c>
     </row>
     <row r="10">
@@ -6867,16 +6861,16 @@
         <v>9.0</v>
       </c>
       <c r="H10" t="n" s="306">
-        <v>0.26629841146151867</v>
+        <v>0.2662984114615189</v>
       </c>
       <c r="I10" t="n" s="307">
-        <v>-1.8107851972342799</v>
+        <v>-1.810785197234278</v>
       </c>
       <c r="J10" t="n" s="308">
-        <v>0.26967376928194026</v>
+        <v>0.2696737692819405</v>
       </c>
       <c r="K10" t="n" s="309">
-        <v>-1.8273010743759346</v>
+        <v>-1.8273010743759337</v>
       </c>
     </row>
     <row r="11">
@@ -6902,7 +6896,7 @@
         <v>10.0</v>
       </c>
       <c r="H11" t="n" s="306">
-        <v>0.26394248130662484</v>
+        <v>0.26394248130662473</v>
       </c>
       <c r="I11" t="n" s="307">
         <v>-1.2312468799232315</v>
@@ -6911,7 +6905,7 @@
         <v>0.2691922482604482</v>
       </c>
       <c r="K11" t="n" s="309">
-        <v>-1.2165707816045352</v>
+        <v>-1.2165707816045348</v>
       </c>
     </row>
     <row r="12">
@@ -6937,16 +6931,16 @@
         <v>11.0</v>
       </c>
       <c r="H12" t="n" s="306">
-        <v>1.468526599862245</v>
+        <v>1.4685265998622472</v>
       </c>
       <c r="I12" t="n" s="307">
-        <v>0.9079272373107341</v>
+        <v>0.9079272373107374</v>
       </c>
       <c r="J12" t="n" s="308">
-        <v>1.4800987956141745</v>
+        <v>1.4800987956141765</v>
       </c>
       <c r="K12" t="n" s="309">
-        <v>0.9205359034159836</v>
+        <v>0.9205359034159856</v>
       </c>
     </row>
     <row r="13">
@@ -6972,16 +6966,16 @@
         <v>12.0</v>
       </c>
       <c r="H13" t="n" s="306">
-        <v>2.2023838053688847</v>
+        <v>2.202383805368882</v>
       </c>
       <c r="I13" t="n" s="307">
-        <v>1.581092530869228</v>
+        <v>1.5810925308692256</v>
       </c>
       <c r="J13" t="n" s="308">
-        <v>2.118685157865062</v>
+        <v>2.118685157865059</v>
       </c>
       <c r="K13" t="n" s="309">
-        <v>1.5209897406140833</v>
+        <v>1.5209897406140795</v>
       </c>
     </row>
     <row r="14">
@@ -7007,16 +7001,16 @@
         <v>13.0</v>
       </c>
       <c r="H14" t="n" s="306">
-        <v>0.31016131672073316</v>
+        <v>0.31016131672073344</v>
       </c>
       <c r="I14" t="n" s="307">
-        <v>-1.2377491360952333</v>
+        <v>-1.237749136095232</v>
       </c>
       <c r="J14" t="n" s="308">
-        <v>0.343015252347266</v>
+        <v>0.34301525234726626</v>
       </c>
       <c r="K14" t="n" s="309">
-        <v>-1.1559830772622448</v>
+        <v>-1.1559830772622424</v>
       </c>
     </row>
     <row r="15">
@@ -7042,16 +7036,16 @@
         <v>14.0</v>
       </c>
       <c r="H15" t="n" s="306">
-        <v>0.452047411516581</v>
+        <v>0.45204741151657923</v>
       </c>
       <c r="I15" t="n" s="307">
-        <v>-1.1930348294504585</v>
+        <v>-1.1930348294504642</v>
       </c>
       <c r="J15" t="n" s="308">
-        <v>0.4454142238958002</v>
+        <v>0.44541422389579816</v>
       </c>
       <c r="K15" t="n" s="309">
-        <v>-1.227845563364348</v>
+        <v>-1.2278455633643546</v>
       </c>
     </row>
     <row r="16">
@@ -7077,16 +7071,16 @@
         <v>15.0</v>
       </c>
       <c r="H16" t="n" s="306">
-        <v>0.5165492357263507</v>
+        <v>0.5165492357263506</v>
       </c>
       <c r="I16" t="n" s="307">
         <v>-0.7523963224812429</v>
       </c>
       <c r="J16" t="n" s="308">
-        <v>0.5136466355362654</v>
+        <v>0.5136466355362651</v>
       </c>
       <c r="K16" t="n" s="309">
-        <v>-0.7820427414223715</v>
+        <v>-0.7820427414223728</v>
       </c>
     </row>
     <row r="17">
@@ -7112,16 +7106,16 @@
         <v>16.0</v>
       </c>
       <c r="H17" t="n" s="306">
-        <v>0.3214344405011381</v>
+        <v>0.32143444050113734</v>
       </c>
       <c r="I17" t="n" s="307">
-        <v>-1.6765774880458477</v>
+        <v>-1.6765774880458513</v>
       </c>
       <c r="J17" t="n" s="308">
-        <v>0.2977504118291289</v>
+        <v>0.29775041182912804</v>
       </c>
       <c r="K17" t="n" s="309">
-        <v>-1.7950448079755725</v>
+        <v>-1.7950448079755765</v>
       </c>
     </row>
     <row r="18">
@@ -7147,16 +7141,16 @@
         <v>17.0</v>
       </c>
       <c r="H18" t="n" s="306">
-        <v>2.4260104452715905</v>
+        <v>2.426010445271589</v>
       </c>
       <c r="I18" t="n" s="307">
-        <v>1.6981723638510524</v>
+        <v>1.6981723638510513</v>
       </c>
       <c r="J18" t="n" s="308">
-        <v>2.3945753717870284</v>
+        <v>2.3945753717870275</v>
       </c>
       <c r="K18" t="n" s="309">
-        <v>1.6819914981806483</v>
+        <v>1.681991498180647</v>
       </c>
     </row>
     <row r="19">
@@ -7182,16 +7176,16 @@
         <v>18.0</v>
       </c>
       <c r="H19" t="n" s="306">
-        <v>0.5430666133841853</v>
+        <v>0.5430666133841849</v>
       </c>
       <c r="I19" t="n" s="307">
-        <v>-0.37804001328148945</v>
+        <v>-0.3780400132814893</v>
       </c>
       <c r="J19" t="n" s="308">
-        <v>0.6026430969989819</v>
+        <v>0.6026430969989818</v>
       </c>
       <c r="K19" t="n" s="309">
-        <v>-0.3361782387351287</v>
+        <v>-0.33617823873512853</v>
       </c>
     </row>
     <row r="20">
@@ -7217,16 +7211,16 @@
         <v>19.0</v>
       </c>
       <c r="H20" t="n" s="306">
-        <v>1.3464737693594186</v>
+        <v>1.3464737693594164</v>
       </c>
       <c r="I20" t="n" s="307">
-        <v>0.7117904578104057</v>
+        <v>0.7117904578104025</v>
       </c>
       <c r="J20" t="n" s="308">
-        <v>1.3114059912799683</v>
+        <v>1.3114059912799663</v>
       </c>
       <c r="K20" t="n" s="309">
-        <v>0.6697893277514869</v>
+        <v>0.6697893277514847</v>
       </c>
     </row>
     <row r="21">
@@ -7252,16 +7246,16 @@
         <v>20.0</v>
       </c>
       <c r="H21" t="n" s="306">
-        <v>3.084623198702338</v>
+        <v>3.0846231987023343</v>
       </c>
       <c r="I21" t="n" s="307">
-        <v>2.117853222441738</v>
+        <v>2.117853222441736</v>
       </c>
       <c r="J21" t="n" s="308">
-        <v>2.9994301226620492</v>
+        <v>2.9994301226620457</v>
       </c>
       <c r="K21" t="n" s="309">
-        <v>2.063709109329541</v>
+        <v>2.0637091093295403</v>
       </c>
     </row>
     <row r="22">
@@ -7287,16 +7281,16 @@
         <v>21.0</v>
       </c>
       <c r="H22" t="n" s="306">
-        <v>0.4631160801336473</v>
+        <v>0.4631160801336465</v>
       </c>
       <c r="I22" t="n" s="307">
-        <v>-1.0836105645170164</v>
+        <v>-1.083610564517018</v>
       </c>
       <c r="J22" t="n" s="308">
-        <v>0.45932980647719995</v>
+        <v>0.4593298064771993</v>
       </c>
       <c r="K22" t="n" s="309">
-        <v>-1.1167358922991621</v>
+        <v>-1.116735892299164</v>
       </c>
     </row>
     <row r="23">
@@ -7322,16 +7316,16 @@
         <v>22.0</v>
       </c>
       <c r="H23" t="n" s="306">
-        <v>0.5652344026126792</v>
+        <v>0.5652344026126784</v>
       </c>
       <c r="I23" t="n" s="307">
-        <v>-0.5683579784944007</v>
+        <v>-0.5683579784944025</v>
       </c>
       <c r="J23" t="n" s="308">
-        <v>0.541938002187549</v>
+        <v>0.5419380021875487</v>
       </c>
       <c r="K23" t="n" s="309">
-        <v>-0.6272662479700771</v>
+        <v>-0.627266247970077</v>
       </c>
     </row>
     <row r="24">
@@ -7357,16 +7351,16 @@
         <v>23.0</v>
       </c>
       <c r="H24" t="n" s="306">
-        <v>1.7537101276371423</v>
+        <v>1.753710127637138</v>
       </c>
       <c r="I24" t="n" s="307">
-        <v>1.339755284496965</v>
+        <v>1.3397552844969585</v>
       </c>
       <c r="J24" t="n" s="308">
-        <v>1.5893105346175582</v>
+        <v>1.5893105346175562</v>
       </c>
       <c r="K24" t="n" s="309">
-        <v>1.1040675914725804</v>
+        <v>1.1040675914725777</v>
       </c>
     </row>
     <row r="25">
@@ -7392,16 +7386,16 @@
         <v>24.0</v>
       </c>
       <c r="H25" t="n" s="306">
-        <v>0.10746834060988646</v>
+        <v>0.10746834060988697</v>
       </c>
       <c r="I25" t="n" s="307">
-        <v>-2.547193890560001</v>
+        <v>-2.547193890559997</v>
       </c>
       <c r="J25" t="n" s="308">
-        <v>0.10094939135954377</v>
+        <v>0.10094939135954406</v>
       </c>
       <c r="K25" t="n" s="309">
-        <v>-2.6556593333283236</v>
+        <v>-2.6556593333283205</v>
       </c>
     </row>
     <row r="26">
@@ -7427,16 +7421,16 @@
         <v>25.0</v>
       </c>
       <c r="H26" t="n" s="306">
-        <v>1.215090813716222</v>
+        <v>1.215090813716221</v>
       </c>
       <c r="I26" t="n" s="307">
-        <v>0.5206966119464589</v>
+        <v>0.5206966119464581</v>
       </c>
       <c r="J26" t="n" s="308">
-        <v>1.2860641252155303</v>
+        <v>1.2860641252155296</v>
       </c>
       <c r="K26" t="n" s="309">
-        <v>0.6083398901258659</v>
+        <v>0.6083398901258661</v>
       </c>
     </row>
     <row r="27">
@@ -7462,16 +7456,16 @@
         <v>26.0</v>
       </c>
       <c r="H27" t="n" s="306">
-        <v>0.4612934134326451</v>
+        <v>0.4612934134326445</v>
       </c>
       <c r="I27" t="n" s="307">
-        <v>-0.6922424089434935</v>
+        <v>-0.6922424089434954</v>
       </c>
       <c r="J27" t="n" s="308">
-        <v>0.46376503274770026</v>
+        <v>0.46376503274770015</v>
       </c>
       <c r="K27" t="n" s="309">
-        <v>-0.6876963356508068</v>
+        <v>-0.6876963356508071</v>
       </c>
     </row>
     <row r="28">
@@ -7497,16 +7491,16 @@
         <v>27.0</v>
       </c>
       <c r="H28" t="n" s="306">
-        <v>0.10103751785173268</v>
+        <v>0.10103751785173246</v>
       </c>
       <c r="I28" t="n" s="307">
-        <v>-1.9537835300028057</v>
+        <v>-1.9537835300028066</v>
       </c>
       <c r="J28" t="n" s="308">
-        <v>0.1044121301983533</v>
+        <v>0.10441213019835313</v>
       </c>
       <c r="K28" t="n" s="309">
-        <v>-1.9365319389113413</v>
+        <v>-1.9365319389113418</v>
       </c>
     </row>
     <row r="29">
@@ -7532,16 +7526,16 @@
         <v>28.0</v>
       </c>
       <c r="H29" t="n" s="306">
-        <v>0.10304963233736479</v>
+        <v>0.10304963233736508</v>
       </c>
       <c r="I29" t="n" s="307">
-        <v>-2.7446930785876513</v>
+        <v>-2.7446930785876487</v>
       </c>
       <c r="J29" t="n" s="308">
-        <v>0.10700630693156485</v>
+        <v>0.10700630693156532</v>
       </c>
       <c r="K29" t="n" s="309">
-        <v>-2.7799138863408515</v>
+        <v>-2.779913886340847</v>
       </c>
     </row>
     <row r="30">
@@ -7567,16 +7561,16 @@
         <v>29.0</v>
       </c>
       <c r="H30" t="n" s="306">
-        <v>0.1009639389716623</v>
+        <v>0.10096393897166189</v>
       </c>
       <c r="I30" t="n" s="307">
-        <v>-0.4009034950024586</v>
+        <v>-0.40090349500245837</v>
       </c>
       <c r="J30" t="n" s="308">
-        <v>0.1157518699677435</v>
+        <v>0.11575186996774313</v>
       </c>
       <c r="K30" t="n" s="309">
-        <v>-0.4193952831406653</v>
+        <v>-0.4193952831406652</v>
       </c>
     </row>
     <row r="31">
@@ -7602,16 +7596,16 @@
         <v>30.0</v>
       </c>
       <c r="H31" t="n" s="306">
-        <v>0.8965317713514471</v>
+        <v>0.8965317713514451</v>
       </c>
       <c r="I31" t="n" s="307">
-        <v>0.03277347394505892</v>
+        <v>0.03277347394505517</v>
       </c>
       <c r="J31" t="n" s="308">
-        <v>0.9704758140521189</v>
+        <v>0.970475814052117</v>
       </c>
       <c r="K31" t="n" s="309">
-        <v>0.15317696783914633</v>
+        <v>0.15317696783914297</v>
       </c>
     </row>
     <row r="32">
@@ -7637,16 +7631,16 @@
         <v>31.0</v>
       </c>
       <c r="H32" t="n" s="306">
-        <v>0.260906094290119</v>
+        <v>0.26090609429011874</v>
       </c>
       <c r="I32" t="n" s="307">
-        <v>-0.6514924434325204</v>
+        <v>-0.6514924434325196</v>
       </c>
       <c r="J32" t="n" s="308">
-        <v>0.28888336370165096</v>
+        <v>0.28888336370165074</v>
       </c>
       <c r="K32" t="n" s="309">
-        <v>-0.6742211602651205</v>
+        <v>-0.6742211602651194</v>
       </c>
     </row>
     <row r="33">
@@ -7675,13 +7669,13 @@
         <v>0.5819733194784904</v>
       </c>
       <c r="I33" t="n" s="307">
-        <v>-0.5315766485113428</v>
+        <v>-0.5315766485113425</v>
       </c>
       <c r="J33" t="n" s="308">
-        <v>0.5518155833531001</v>
+        <v>0.5518155833531003</v>
       </c>
       <c r="K33" t="n" s="309">
-        <v>-0.6047234249127589</v>
+        <v>-0.6047234249127578</v>
       </c>
     </row>
     <row r="34">
@@ -7707,16 +7701,16 @@
         <v>33.0</v>
       </c>
       <c r="H34" t="n" s="306">
-        <v>2.0901289236683</v>
+        <v>2.0901289236682983</v>
       </c>
       <c r="I34" t="n" s="307">
-        <v>1.7201773836065821</v>
+        <v>1.7201773836065812</v>
       </c>
       <c r="J34" t="n" s="308">
-        <v>2.2192305871147417</v>
+        <v>2.219230587114741</v>
       </c>
       <c r="K34" t="n" s="309">
-        <v>1.8397372716284264</v>
+        <v>1.839737271628426</v>
       </c>
     </row>
     <row r="35">
@@ -7742,16 +7736,16 @@
         <v>34.0</v>
       </c>
       <c r="H35" t="n" s="306">
-        <v>0.21774160259268127</v>
+        <v>0.21774160259268055</v>
       </c>
       <c r="I35" t="n" s="307">
-        <v>-1.7477618364264065</v>
+        <v>-1.7477618364264083</v>
       </c>
       <c r="J35" t="n" s="308">
-        <v>0.20660693240814398</v>
+        <v>0.2066069324081432</v>
       </c>
       <c r="K35" t="n" s="309">
-        <v>-1.8052008523910439</v>
+        <v>-1.8052008523910468</v>
       </c>
     </row>
     <row r="36">
@@ -7777,16 +7771,16 @@
         <v>35.0</v>
       </c>
       <c r="H36" t="n" s="306">
-        <v>0.07492514263346661</v>
+        <v>0.07492514263346686</v>
       </c>
       <c r="I36" t="n" s="307">
         <v>-2.136713719397404</v>
       </c>
       <c r="J36" t="n" s="308">
-        <v>0.07899969173221383</v>
+        <v>0.07899969173221404</v>
       </c>
       <c r="K36" t="n" s="309">
-        <v>-2.108304960970224</v>
+        <v>-2.1083049609702242</v>
       </c>
     </row>
     <row r="37">
@@ -7812,16 +7806,16 @@
         <v>36.0</v>
       </c>
       <c r="H37" t="n" s="306">
-        <v>1.5838128761919124</v>
+        <v>1.5838128761919112</v>
       </c>
       <c r="I37" t="n" s="307">
-        <v>1.1035226350154355</v>
+        <v>1.103522635015434</v>
       </c>
       <c r="J37" t="n" s="308">
-        <v>1.6222179333194273</v>
+        <v>1.6222179333194267</v>
       </c>
       <c r="K37" t="n" s="309">
-        <v>1.1674306391315987</v>
+        <v>1.1674306391315974</v>
       </c>
     </row>
     <row r="38">
@@ -7847,16 +7841,16 @@
         <v>37.0</v>
       </c>
       <c r="H38" t="n" s="306">
-        <v>0.07855696279667343</v>
+        <v>0.0785569627966738</v>
       </c>
       <c r="I38" t="n" s="307">
-        <v>-3.0109264648910314</v>
+        <v>-3.0109264648910257</v>
       </c>
       <c r="J38" t="n" s="308">
-        <v>0.07665475687882828</v>
+        <v>0.07665475687882856</v>
       </c>
       <c r="K38" t="n" s="309">
-        <v>-3.0801384831484246</v>
+        <v>-3.080138483148422</v>
       </c>
     </row>
     <row r="39">
@@ -7882,16 +7876,16 @@
         <v>38.0</v>
       </c>
       <c r="H39" t="n" s="306">
-        <v>0.030043679880548457</v>
+        <v>0.0300436798805487</v>
       </c>
       <c r="I39" t="n" s="307">
-        <v>-3.7136985244209693</v>
+        <v>-3.7136985244209644</v>
       </c>
       <c r="J39" t="n" s="308">
-        <v>0.03240619784106682</v>
+        <v>0.032406197841067116</v>
       </c>
       <c r="K39" t="n" s="309">
-        <v>-3.5847475244009503</v>
+        <v>-3.584747524400944</v>
       </c>
     </row>
     <row r="40">
@@ -7917,16 +7911,16 @@
         <v>39.0</v>
       </c>
       <c r="H40" t="n" s="306">
-        <v>0.07492514263346661</v>
+        <v>0.07492514263346686</v>
       </c>
       <c r="I40" t="n" s="307">
         <v>-2.136713719397404</v>
       </c>
       <c r="J40" t="n" s="308">
-        <v>0.07899969173221383</v>
+        <v>0.07899969173221404</v>
       </c>
       <c r="K40" t="n" s="309">
-        <v>-2.108304960970224</v>
+        <v>-2.1083049609702242</v>
       </c>
     </row>
     <row r="41">
@@ -7952,16 +7946,16 @@
         <v>40.0</v>
       </c>
       <c r="H41" t="n" s="306">
-        <v>1.1566238454500546</v>
+        <v>1.1566238454500524</v>
       </c>
       <c r="I41" t="n" s="307">
-        <v>0.4462748497525955</v>
+        <v>0.4462748497525927</v>
       </c>
       <c r="J41" t="n" s="308">
-        <v>1.4456038099124962</v>
+        <v>1.4456038099124937</v>
       </c>
       <c r="K41" t="n" s="309">
-        <v>0.8163951269293332</v>
+        <v>0.8163951269293301</v>
       </c>
     </row>
     <row r="42">
@@ -7987,16 +7981,16 @@
         <v>41.0</v>
       </c>
       <c r="H42" t="n" s="306">
-        <v>1.0440748343859088</v>
+        <v>1.0440748343859103</v>
       </c>
       <c r="I42" t="n" s="307">
-        <v>0.27505509693460045</v>
+        <v>0.2750550969346027</v>
       </c>
       <c r="J42" t="n" s="308">
-        <v>1.0817038545254096</v>
+        <v>1.0817038545254123</v>
       </c>
       <c r="K42" t="n" s="309">
-        <v>0.33385223017203924</v>
+        <v>0.3338522301720437</v>
       </c>
     </row>
     <row r="43">
@@ -8022,16 +8016,16 @@
         <v>42.0</v>
       </c>
       <c r="H43" t="n" s="306">
-        <v>0.33037337011929474</v>
+        <v>0.3303733701192946</v>
       </c>
       <c r="I43" t="n" s="307">
-        <v>-0.8230958324724458</v>
+        <v>-0.8230958324724453</v>
       </c>
       <c r="J43" t="n" s="308">
-        <v>0.29823753314119295</v>
+        <v>0.2982375331411926</v>
       </c>
       <c r="K43" t="n" s="309">
-        <v>-1.0142289235708357</v>
+        <v>-1.0142289235708355</v>
       </c>
     </row>
     <row r="44">
@@ -8057,16 +8051,16 @@
         <v>43.0</v>
       </c>
       <c r="H44" t="n" s="306">
-        <v>0.19556820987146228</v>
+        <v>0.19556820987146248</v>
       </c>
       <c r="I44" t="n" s="307">
-        <v>-1.8514158161336205</v>
+        <v>-1.851415816133618</v>
       </c>
       <c r="J44" t="n" s="308">
-        <v>0.18623775304436943</v>
+        <v>0.1862377530443696</v>
       </c>
       <c r="K44" t="n" s="309">
-        <v>-1.903978003595001</v>
+        <v>-1.9039780035949985</v>
       </c>
     </row>
     <row r="45">
@@ -8092,16 +8086,16 @@
         <v>44.0</v>
       </c>
       <c r="H45" t="n" s="306">
-        <v>1.2873069288787888</v>
+        <v>1.2873069288787895</v>
       </c>
       <c r="I45" t="n" s="307">
-        <v>0.634415634756806</v>
+        <v>0.6344156347568057</v>
       </c>
       <c r="J45" t="n" s="308">
         <v>1.287468901147849</v>
       </c>
       <c r="K45" t="n" s="309">
-        <v>0.6352888601091694</v>
+        <v>0.6352888601091693</v>
       </c>
     </row>
     <row r="46">
@@ -8127,16 +8121,16 @@
         <v>45.0</v>
       </c>
       <c r="H46" t="n" s="306">
-        <v>0.17927741770747554</v>
+        <v>0.1792774177074758</v>
       </c>
       <c r="I46" t="n" s="307">
-        <v>-1.7649764041662084</v>
+        <v>-1.764976404166207</v>
       </c>
       <c r="J46" t="n" s="308">
-        <v>0.17069074745245552</v>
+        <v>0.17069074745245572</v>
       </c>
       <c r="K46" t="n" s="309">
-        <v>-1.8203706561057114</v>
+        <v>-1.820370656105709</v>
       </c>
     </row>
     <row r="47">
@@ -8165,13 +8159,13 @@
         <v>2.157986655296786</v>
       </c>
       <c r="I47" t="n" s="307">
-        <v>1.4823460849643653</v>
+        <v>1.4823460849643664</v>
       </c>
       <c r="J47" t="n" s="308">
-        <v>2.171198881292371</v>
+        <v>2.1711988812923697</v>
       </c>
       <c r="K47" t="n" s="309">
-        <v>1.4978542549145375</v>
+        <v>1.4978542549145373</v>
       </c>
     </row>
     <row r="48">
@@ -8197,16 +8191,16 @@
         <v>47.0</v>
       </c>
       <c r="H48" t="n" s="306">
-        <v>0.10103751785173268</v>
+        <v>0.10103751785173246</v>
       </c>
       <c r="I48" t="n" s="307">
-        <v>-1.9537835300028057</v>
+        <v>-1.9537835300028066</v>
       </c>
       <c r="J48" t="n" s="308">
-        <v>0.1044121301983533</v>
+        <v>0.10441213019835313</v>
       </c>
       <c r="K48" t="n" s="309">
-        <v>-1.9365319389113413</v>
+        <v>-1.9365319389113418</v>
       </c>
     </row>
   </sheetData>
@@ -8299,7 +8293,7 @@
         <v>4.0</v>
       </c>
       <c r="G2" t="n" s="322">
-        <v>1.0</v>
+        <v>10170.0</v>
       </c>
       <c r="H2" t="n" s="323">
         <v>5.0</v>
@@ -8311,13 +8305,13 @@
         <v>33.0</v>
       </c>
       <c r="K2" t="n" s="326">
-        <v>0.7428250324180992</v>
+        <v>0.7428250324181027</v>
       </c>
       <c r="L2" t="n" s="327">
         <v>0.5201119689447299</v>
       </c>
       <c r="M2" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="3">
@@ -8340,7 +8334,7 @@
         <v>5.0</v>
       </c>
       <c r="G3" t="n" s="322">
-        <v>2.0</v>
+        <v>10171.0</v>
       </c>
       <c r="H3" t="n" s="323">
         <v>5.0</v>
@@ -8352,13 +8346,13 @@
         <v>33.0</v>
       </c>
       <c r="K3" t="n" s="326">
-        <v>2.7672373265395196</v>
+        <v>2.7672373265395227</v>
       </c>
       <c r="L3" t="n" s="327">
-        <v>0.5640387623187032</v>
+        <v>0.5640387623187058</v>
       </c>
       <c r="M3" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="4">
@@ -8381,7 +8375,7 @@
         <v>5.0</v>
       </c>
       <c r="G4" t="n" s="322">
-        <v>3.0</v>
+        <v>10172.0</v>
       </c>
       <c r="H4" t="n" s="323">
         <v>5.0</v>
@@ -8393,13 +8387,13 @@
         <v>33.0</v>
       </c>
       <c r="K4" t="n" s="326">
-        <v>1.990611040813652</v>
+        <v>1.9906110408136473</v>
       </c>
       <c r="L4" t="n" s="327">
         <v>0.5008514596790399</v>
       </c>
       <c r="M4" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="5">
@@ -8422,7 +8416,7 @@
         <v>6.0</v>
       </c>
       <c r="G5" t="n" s="322">
-        <v>4.0</v>
+        <v>10174.0</v>
       </c>
       <c r="H5" t="n" s="323">
         <v>5.0</v>
@@ -8434,13 +8428,13 @@
         <v>33.0</v>
       </c>
       <c r="K5" t="n" s="326">
-        <v>1.2745831746021141</v>
+        <v>1.274583174602112</v>
       </c>
       <c r="L5" t="n" s="327">
-        <v>0.5041606383649208</v>
+        <v>0.5041606383649199</v>
       </c>
       <c r="M5" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="6">
@@ -8463,7 +8457,7 @@
         <v>4.0</v>
       </c>
       <c r="G6" t="n" s="322">
-        <v>5.0</v>
+        <v>10175.0</v>
       </c>
       <c r="H6" t="n" s="323">
         <v>5.0</v>
@@ -8475,13 +8469,13 @@
         <v>33.0</v>
       </c>
       <c r="K6" t="n" s="326">
-        <v>0.4548622136164134</v>
+        <v>0.4548622136164115</v>
       </c>
       <c r="L6" t="n" s="327">
-        <v>0.521441827263477</v>
+        <v>0.521441827263476</v>
       </c>
       <c r="M6" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="7">
@@ -8504,7 +8498,7 @@
         <v>4.0</v>
       </c>
       <c r="G7" t="n" s="322">
-        <v>6.0</v>
+        <v>10176.0</v>
       </c>
       <c r="H7" t="n" s="323">
         <v>5.0</v>
@@ -8516,13 +8510,13 @@
         <v>33.0</v>
       </c>
       <c r="K7" t="n" s="326">
-        <v>0.1679123456784161</v>
+        <v>0.16791234567841737</v>
       </c>
       <c r="L7" t="n" s="327">
         <v>0.5129374642281367</v>
       </c>
       <c r="M7" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="8">
@@ -8545,7 +8539,7 @@
         <v>4.0</v>
       </c>
       <c r="G8" t="n" s="322">
-        <v>7.0</v>
+        <v>10179.0</v>
       </c>
       <c r="H8" t="n" s="323">
         <v>5.0</v>
@@ -8557,13 +8551,13 @@
         <v>33.0</v>
       </c>
       <c r="K8" t="n" s="326">
-        <v>0.4548622136164134</v>
+        <v>0.4548622136164115</v>
       </c>
       <c r="L8" t="n" s="327">
-        <v>0.521441827263477</v>
+        <v>0.521441827263476</v>
       </c>
       <c r="M8" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="9">
@@ -8586,7 +8580,7 @@
         <v>2.0</v>
       </c>
       <c r="G9" t="n" s="322">
-        <v>8.0</v>
+        <v>10181.0</v>
       </c>
       <c r="H9" t="n" s="323">
         <v>5.0</v>
@@ -8598,13 +8592,13 @@
         <v>33.0</v>
       </c>
       <c r="K9" t="n" s="326">
-        <v>-1.31636757532789</v>
+        <v>-1.3163675753278885</v>
       </c>
       <c r="L9" t="n" s="327">
-        <v>0.44475067360229475</v>
+        <v>0.4447506736022949</v>
       </c>
       <c r="M9" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="10">
@@ -8627,7 +8621,7 @@
         <v>2.0</v>
       </c>
       <c r="G10" t="n" s="322">
-        <v>9.0</v>
+        <v>10183.0</v>
       </c>
       <c r="H10" t="n" s="323">
         <v>5.0</v>
@@ -8639,13 +8633,13 @@
         <v>33.0</v>
       </c>
       <c r="K10" t="n" s="326">
-        <v>-0.9508511079426868</v>
+        <v>-0.9508511079426846</v>
       </c>
       <c r="L10" t="n" s="327">
-        <v>0.4436985554175319</v>
+        <v>0.44369855541753156</v>
       </c>
       <c r="M10" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="11">
@@ -8668,7 +8662,7 @@
         <v>4.0</v>
       </c>
       <c r="G11" t="n" s="322">
-        <v>10.0</v>
+        <v>10184.0</v>
       </c>
       <c r="H11" t="n" s="323">
         <v>5.0</v>
@@ -8680,13 +8674,13 @@
         <v>33.0</v>
       </c>
       <c r="K11" t="n" s="326">
-        <v>0.1679123456784161</v>
+        <v>0.16791234567841737</v>
       </c>
       <c r="L11" t="n" s="327">
         <v>0.5129374642281367</v>
       </c>
       <c r="M11" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="12">
@@ -8709,7 +8703,7 @@
         <v>6.0</v>
       </c>
       <c r="G12" t="n" s="322">
-        <v>11.0</v>
+        <v>10185.0</v>
       </c>
       <c r="H12" t="n" s="323">
         <v>5.0</v>
@@ -8721,13 +8715,13 @@
         <v>33.0</v>
       </c>
       <c r="K12" t="n" s="326">
-        <v>1.5186440334407874</v>
+        <v>1.5186440334407851</v>
       </c>
       <c r="L12" t="n" s="327">
         <v>0.4982490578835026</v>
       </c>
       <c r="M12" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="13">
@@ -8750,7 +8744,7 @@
         <v>3.0</v>
       </c>
       <c r="G13" t="n" s="322">
-        <v>12.0</v>
+        <v>10186.0</v>
       </c>
       <c r="H13" t="n" s="323">
         <v>5.0</v>
@@ -8762,13 +8756,13 @@
         <v>33.0</v>
       </c>
       <c r="K13" t="n" s="326">
-        <v>-0.3423730457217525</v>
+        <v>-0.34237304572175087</v>
       </c>
       <c r="L13" t="n" s="327">
-        <v>0.4787017563933511</v>
+        <v>0.4787017563933507</v>
       </c>
       <c r="M13" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="14">
@@ -8791,7 +8785,7 @@
         <v>3.0</v>
       </c>
       <c r="G14" t="n" s="322">
-        <v>13.0</v>
+        <v>10188.0</v>
       </c>
       <c r="H14" t="n" s="323">
         <v>5.0</v>
@@ -8803,13 +8797,13 @@
         <v>33.0</v>
       </c>
       <c r="K14" t="n" s="326">
-        <v>-0.3423730457217525</v>
+        <v>-0.34237304572175087</v>
       </c>
       <c r="L14" t="n" s="327">
-        <v>0.4787017563933511</v>
+        <v>0.4787017563933507</v>
       </c>
       <c r="M14" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="15">
@@ -8832,7 +8826,7 @@
         <v>2.0</v>
       </c>
       <c r="G15" t="n" s="322">
-        <v>14.0</v>
+        <v>10189.0</v>
       </c>
       <c r="H15" t="n" s="323">
         <v>5.0</v>
@@ -8844,13 +8838,13 @@
         <v>33.0</v>
       </c>
       <c r="K15" t="n" s="326">
-        <v>-1.5029079949426423</v>
+        <v>-1.5029079949426392</v>
       </c>
       <c r="L15" t="n" s="327">
         <v>0.4541676616399421</v>
       </c>
       <c r="M15" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="16">
@@ -8873,7 +8867,7 @@
         <v>4.0</v>
       </c>
       <c r="G16" t="n" s="322">
-        <v>15.0</v>
+        <v>10190.0</v>
       </c>
       <c r="H16" t="n" s="323">
         <v>5.0</v>
@@ -8885,13 +8879,13 @@
         <v>33.0</v>
       </c>
       <c r="K16" t="n" s="326">
-        <v>-0.5607739336003871</v>
+        <v>-0.5607739336003855</v>
       </c>
       <c r="L16" t="n" s="327">
         <v>0.4627625825645363</v>
       </c>
       <c r="M16" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="17">
@@ -8914,7 +8908,7 @@
         <v>2.0</v>
       </c>
       <c r="G17" t="n" s="322">
-        <v>16.0</v>
+        <v>10191.0</v>
       </c>
       <c r="H17" t="n" s="323">
         <v>5.0</v>
@@ -8926,13 +8920,13 @@
         <v>33.0</v>
       </c>
       <c r="K17" t="n" s="326">
-        <v>-1.5029079949426423</v>
+        <v>-1.5029079949426392</v>
       </c>
       <c r="L17" t="n" s="327">
         <v>0.4541676616399421</v>
       </c>
       <c r="M17" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="18">
@@ -8955,7 +8949,7 @@
         <v>1.0</v>
       </c>
       <c r="G18" t="n" s="322">
-        <v>17.0</v>
+        <v>10192.0</v>
       </c>
       <c r="H18" t="n" s="323">
         <v>5.0</v>
@@ -8967,13 +8961,13 @@
         <v>33.0</v>
       </c>
       <c r="K18" t="n" s="326">
-        <v>-0.10032552078756662</v>
+        <v>-0.10032552078756442</v>
       </c>
       <c r="L18" t="n" s="327">
         <v>0.4968152146482996</v>
       </c>
       <c r="M18" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="19">
@@ -8996,7 +8990,7 @@
         <v>2.0</v>
       </c>
       <c r="G19" t="n" s="322">
-        <v>18.0</v>
+        <v>10193.0</v>
       </c>
       <c r="H19" t="n" s="323">
         <v>5.0</v>
@@ -9008,13 +9002,13 @@
         <v>33.0</v>
       </c>
       <c r="K19" t="n" s="326">
-        <v>-2.4746913210133528</v>
+        <v>-2.474691321013351</v>
       </c>
       <c r="L19" t="n" s="327">
         <v>0.6209806794261473</v>
       </c>
       <c r="M19" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="20">
@@ -9037,7 +9031,7 @@
         <v>2.0</v>
       </c>
       <c r="G20" t="n" s="322">
-        <v>19.0</v>
+        <v>10197.0</v>
       </c>
       <c r="H20" t="n" s="323">
         <v>5.0</v>
@@ -9049,13 +9043,13 @@
         <v>33.0</v>
       </c>
       <c r="K20" t="n" s="326">
-        <v>-0.5607739336003871</v>
+        <v>-0.5607739336003855</v>
       </c>
       <c r="L20" t="n" s="327">
         <v>0.4627625825645363</v>
       </c>
       <c r="M20" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="21">
@@ -9078,7 +9072,7 @@
         <v>2.0</v>
       </c>
       <c r="G21" t="n" s="322">
-        <v>20.0</v>
+        <v>10198.0</v>
       </c>
       <c r="H21" t="n" s="323">
         <v>5.0</v>
@@ -9090,13 +9084,13 @@
         <v>33.0</v>
       </c>
       <c r="K21" t="n" s="326">
-        <v>0.4548622136164134</v>
+        <v>0.4548622136164115</v>
       </c>
       <c r="L21" t="n" s="327">
-        <v>0.521441827263477</v>
+        <v>0.521441827263476</v>
       </c>
       <c r="M21" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="22">
@@ -9119,7 +9113,7 @@
         <v>3.0</v>
       </c>
       <c r="G22" t="n" s="322">
-        <v>21.0</v>
+        <v>10199.0</v>
       </c>
       <c r="H22" t="n" s="323">
         <v>5.0</v>
@@ -9131,13 +9125,13 @@
         <v>33.0</v>
       </c>
       <c r="K22" t="n" s="326">
-        <v>-0.9508511079426868</v>
+        <v>-0.9508511079426846</v>
       </c>
       <c r="L22" t="n" s="327">
-        <v>0.4436985554175319</v>
+        <v>0.44369855541753156</v>
       </c>
       <c r="M22" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="23">
@@ -9160,7 +9154,7 @@
         <v>5.0</v>
       </c>
       <c r="G23" t="n" s="322">
-        <v>22.0</v>
+        <v>10200.0</v>
       </c>
       <c r="H23" t="n" s="323">
         <v>5.0</v>
@@ -9172,13 +9166,13 @@
         <v>33.0</v>
       </c>
       <c r="K23" t="n" s="326">
-        <v>1.0171941972000418</v>
+        <v>1.0171941972000411</v>
       </c>
       <c r="L23" t="n" s="327">
         <v>0.5126109431279409</v>
       </c>
       <c r="M23" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="24">
@@ -9201,7 +9195,7 @@
         <v>3.0</v>
       </c>
       <c r="G24" t="n" s="322">
-        <v>23.0</v>
+        <v>10201.0</v>
       </c>
       <c r="H24" t="n" s="323">
         <v>5.0</v>
@@ -9213,13 +9207,13 @@
         <v>33.0</v>
       </c>
       <c r="K24" t="n" s="326">
-        <v>1.990611040813652</v>
+        <v>1.9906110408136473</v>
       </c>
       <c r="L24" t="n" s="327">
         <v>0.5008514596790399</v>
       </c>
       <c r="M24" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="25">
@@ -9242,7 +9236,7 @@
         <v>3.0</v>
       </c>
       <c r="G25" t="n" s="322">
-        <v>24.0</v>
+        <v>10202.0</v>
       </c>
       <c r="H25" t="n" s="323">
         <v>5.0</v>
@@ -9254,13 +9248,13 @@
         <v>33.0</v>
       </c>
       <c r="K25" t="n" s="326">
-        <v>-0.7615650634376789</v>
+        <v>-0.7615650634376763</v>
       </c>
       <c r="L25" t="n" s="327">
         <v>0.4508756307412788</v>
       </c>
       <c r="M25" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="26">
@@ -9283,7 +9277,7 @@
         <v>4.0</v>
       </c>
       <c r="G26" t="n" s="322">
-        <v>25.0</v>
+        <v>10203.0</v>
       </c>
       <c r="H26" t="n" s="323">
         <v>5.0</v>
@@ -9295,13 +9289,13 @@
         <v>33.0</v>
       </c>
       <c r="K26" t="n" s="326">
-        <v>0.7428250324180992</v>
+        <v>0.7428250324181027</v>
       </c>
       <c r="L26" t="n" s="327">
         <v>0.5201119689447299</v>
       </c>
       <c r="M26" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="27">
@@ -9324,7 +9318,7 @@
         <v>4.0</v>
       </c>
       <c r="G27" t="n" s="322">
-        <v>26.0</v>
+        <v>10206.0</v>
       </c>
       <c r="H27" t="n" s="323">
         <v>5.0</v>
@@ -9336,13 +9330,13 @@
         <v>33.0</v>
       </c>
       <c r="K27" t="n" s="326">
-        <v>0.4548622136164134</v>
+        <v>0.4548622136164115</v>
       </c>
       <c r="L27" t="n" s="327">
-        <v>0.521441827263477</v>
+        <v>0.521441827263476</v>
       </c>
       <c r="M27" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="28">
@@ -9365,7 +9359,7 @@
         <v>4.0</v>
       </c>
       <c r="G28" t="n" s="322">
-        <v>27.0</v>
+        <v>10208.0</v>
       </c>
       <c r="H28" t="n" s="323">
         <v>5.0</v>
@@ -9377,13 +9371,13 @@
         <v>33.0</v>
       </c>
       <c r="K28" t="n" s="326">
-        <v>0.1679123456784161</v>
+        <v>0.16791234567841737</v>
       </c>
       <c r="L28" t="n" s="327">
         <v>0.5129374642281367</v>
       </c>
       <c r="M28" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="29">
@@ -9406,7 +9400,7 @@
         <v>2.0</v>
       </c>
       <c r="G29" t="n" s="322">
-        <v>28.0</v>
+        <v>10209.0</v>
       </c>
       <c r="H29" t="n" s="323">
         <v>5.0</v>
@@ -9418,13 +9412,13 @@
         <v>33.0</v>
       </c>
       <c r="K29" t="n" s="326">
-        <v>-1.6999199590900465</v>
+        <v>-1.699919959090044</v>
       </c>
       <c r="L29" t="n" s="327">
         <v>0.4713383411078243</v>
       </c>
       <c r="M29" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="30">
@@ -9447,7 +9441,7 @@
         <v>1.0</v>
       </c>
       <c r="G30" t="n" s="322">
-        <v>29.0</v>
+        <v>10210.0</v>
       </c>
       <c r="H30" t="n" s="323">
         <v>5.0</v>
@@ -9462,10 +9456,10 @@
         <v>-3.862388367054837</v>
       </c>
       <c r="L30" t="n" s="327">
-        <v>1.2998638238179974</v>
+        <v>1.2998638238179991</v>
       </c>
       <c r="M30" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="31">
@@ -9488,7 +9482,7 @@
         <v>4.0</v>
       </c>
       <c r="G31" t="n" s="322">
-        <v>30.0</v>
+        <v>10213.0</v>
       </c>
       <c r="H31" t="n" s="323">
         <v>5.0</v>
@@ -9500,13 +9494,13 @@
         <v>33.0</v>
       </c>
       <c r="K31" t="n" s="326">
-        <v>-0.5607739336003871</v>
+        <v>-0.5607739336003855</v>
       </c>
       <c r="L31" t="n" s="327">
         <v>0.4627625825645363</v>
       </c>
       <c r="M31" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="32">
@@ -9529,7 +9523,7 @@
         <v>1.0</v>
       </c>
       <c r="G32" t="n" s="322">
-        <v>31.0</v>
+        <v>10214.0</v>
       </c>
       <c r="H32" t="n" s="323">
         <v>5.0</v>
@@ -9541,13 +9535,13 @@
         <v>33.0</v>
       </c>
       <c r="K32" t="n" s="326">
-        <v>-2.91808391972795</v>
+        <v>-2.9180839197279487</v>
       </c>
       <c r="L32" t="n" s="327">
-        <v>0.7750341503194946</v>
+        <v>0.7750341503194951</v>
       </c>
       <c r="M32" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="33">
@@ -9570,7 +9564,7 @@
         <v>5.0</v>
       </c>
       <c r="G33" t="n" s="322">
-        <v>32.0</v>
+        <v>10215.0</v>
       </c>
       <c r="H33" t="n" s="323">
         <v>5.0</v>
@@ -9582,13 +9576,13 @@
         <v>33.0</v>
       </c>
       <c r="K33" t="n" s="326">
-        <v>1.0171941972000418</v>
+        <v>1.0171941972000411</v>
       </c>
       <c r="L33" t="n" s="327">
         <v>0.5126109431279409</v>
       </c>
       <c r="M33" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="34">
@@ -9611,7 +9605,7 @@
         <v>5.0</v>
       </c>
       <c r="G34" t="n" s="322">
-        <v>33.0</v>
+        <v>10216.0</v>
       </c>
       <c r="H34" t="n" s="323">
         <v>5.0</v>
@@ -9623,13 +9617,13 @@
         <v>33.0</v>
       </c>
       <c r="K34" t="n" s="326">
-        <v>1.755215223889863</v>
+        <v>1.755215223889862</v>
       </c>
       <c r="L34" t="n" s="327">
         <v>0.49674595254975085</v>
       </c>
       <c r="M34" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="35">
@@ -9652,7 +9646,7 @@
         <v>4.0</v>
       </c>
       <c r="G35" t="n" s="322">
-        <v>34.0</v>
+        <v>10217.0</v>
       </c>
       <c r="H35" t="n" s="323">
         <v>5.0</v>
@@ -9664,13 +9658,13 @@
         <v>33.0</v>
       </c>
       <c r="K35" t="n" s="326">
-        <v>1.2745831746021141</v>
+        <v>1.274583174602112</v>
       </c>
       <c r="L35" t="n" s="327">
-        <v>0.5041606383649208</v>
+        <v>0.5041606383649199</v>
       </c>
       <c r="M35" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="36">
@@ -9693,7 +9687,7 @@
         <v>4.0</v>
       </c>
       <c r="G36" t="n" s="322">
-        <v>35.0</v>
+        <v>10218.0</v>
       </c>
       <c r="H36" t="n" s="323">
         <v>5.0</v>
@@ -9705,13 +9699,13 @@
         <v>33.0</v>
       </c>
       <c r="K36" t="n" s="326">
-        <v>0.4548622136164134</v>
+        <v>0.4548622136164115</v>
       </c>
       <c r="L36" t="n" s="327">
-        <v>0.521441827263477</v>
+        <v>0.521441827263476</v>
       </c>
       <c r="M36" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="37">
@@ -9734,7 +9728,7 @@
         <v>4.0</v>
       </c>
       <c r="G37" t="n" s="322">
-        <v>36.0</v>
+        <v>10220.0</v>
       </c>
       <c r="H37" t="n" s="323">
         <v>5.0</v>
@@ -9746,13 +9740,13 @@
         <v>33.0</v>
       </c>
       <c r="K37" t="n" s="326">
-        <v>-0.9508511079426868</v>
+        <v>-0.9508511079426846</v>
       </c>
       <c r="L37" t="n" s="327">
-        <v>0.4436985554175319</v>
+        <v>0.44369855541753156</v>
       </c>
       <c r="M37" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="38">
@@ -9775,7 +9769,7 @@
         <v>3.0</v>
       </c>
       <c r="G38" t="n" s="322">
-        <v>37.0</v>
+        <v>10221.0</v>
       </c>
       <c r="H38" t="n" s="323">
         <v>5.0</v>
@@ -9787,13 +9781,13 @@
         <v>33.0</v>
       </c>
       <c r="K38" t="n" s="326">
-        <v>-0.9508511079426868</v>
+        <v>-0.9508511079426846</v>
       </c>
       <c r="L38" t="n" s="327">
-        <v>0.4436985554175319</v>
+        <v>0.44369855541753156</v>
       </c>
       <c r="M38" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="39">
@@ -9816,7 +9810,7 @@
         <v>5.0</v>
       </c>
       <c r="G39" t="n" s="322">
-        <v>38.0</v>
+        <v>10223.0</v>
       </c>
       <c r="H39" t="n" s="323">
         <v>5.0</v>
@@ -9828,13 +9822,13 @@
         <v>33.0</v>
       </c>
       <c r="K39" t="n" s="326">
-        <v>1.990611040813652</v>
+        <v>1.9906110408136473</v>
       </c>
       <c r="L39" t="n" s="327">
         <v>0.5008514596790399</v>
       </c>
       <c r="M39" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="40">
@@ -9857,7 +9851,7 @@
         <v>4.0</v>
       </c>
       <c r="G40" t="n" s="322">
-        <v>39.0</v>
+        <v>10224.0</v>
       </c>
       <c r="H40" t="n" s="323">
         <v>5.0</v>
@@ -9869,13 +9863,13 @@
         <v>33.0</v>
       </c>
       <c r="K40" t="n" s="326">
-        <v>0.4548622136164134</v>
+        <v>0.4548622136164115</v>
       </c>
       <c r="L40" t="n" s="327">
-        <v>0.521441827263477</v>
+        <v>0.521441827263476</v>
       </c>
       <c r="M40" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="41">
@@ -9898,7 +9892,7 @@
         <v>1.0</v>
       </c>
       <c r="G41" t="n" s="322">
-        <v>40.0</v>
+        <v>10226.0</v>
       </c>
       <c r="H41" t="n" s="323">
         <v>5.0</v>
@@ -9910,13 +9904,13 @@
         <v>33.0</v>
       </c>
       <c r="K41" t="n" s="326">
-        <v>-2.165002640354117</v>
+        <v>-2.1650026403541154</v>
       </c>
       <c r="L41" t="n" s="327">
-        <v>0.5442763960239485</v>
+        <v>0.5442763960239487</v>
       </c>
       <c r="M41" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="42">
@@ -9939,7 +9933,7 @@
         <v>5.0</v>
       </c>
       <c r="G42" t="n" s="322">
-        <v>41.0</v>
+        <v>10227.0</v>
       </c>
       <c r="H42" t="n" s="323">
         <v>5.0</v>
@@ -9951,13 +9945,13 @@
         <v>33.0</v>
       </c>
       <c r="K42" t="n" s="326">
-        <v>1.2745831746021141</v>
+        <v>1.274583174602112</v>
       </c>
       <c r="L42" t="n" s="327">
-        <v>0.5041606383649208</v>
+        <v>0.5041606383649199</v>
       </c>
       <c r="M42" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="43">
@@ -9980,7 +9974,7 @@
         <v>2.0</v>
       </c>
       <c r="G43" t="n" s="322">
-        <v>42.0</v>
+        <v>10228.0</v>
       </c>
       <c r="H43" t="n" s="323">
         <v>5.0</v>
@@ -9992,13 +9986,13 @@
         <v>33.0</v>
       </c>
       <c r="K43" t="n" s="326">
-        <v>-2.4746913210133528</v>
+        <v>-2.474691321013351</v>
       </c>
       <c r="L43" t="n" s="327">
         <v>0.6209806794261473</v>
       </c>
       <c r="M43" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="44">
@@ -10021,7 +10015,7 @@
         <v>5.0</v>
       </c>
       <c r="G44" t="n" s="322">
-        <v>43.0</v>
+        <v>10230.0</v>
       </c>
       <c r="H44" t="n" s="323">
         <v>5.0</v>
@@ -10033,13 +10027,13 @@
         <v>33.0</v>
       </c>
       <c r="K44" t="n" s="326">
-        <v>1.2745831746021141</v>
+        <v>1.274583174602112</v>
       </c>
       <c r="L44" t="n" s="327">
-        <v>0.5041606383649208</v>
+        <v>0.5041606383649199</v>
       </c>
       <c r="M44" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="45">
@@ -10062,7 +10056,7 @@
         <v>5.0</v>
       </c>
       <c r="G45" t="n" s="322">
-        <v>44.0</v>
+        <v>10231.0</v>
       </c>
       <c r="H45" t="n" s="323">
         <v>5.0</v>
@@ -10074,13 +10068,13 @@
         <v>33.0</v>
       </c>
       <c r="K45" t="n" s="326">
-        <v>1.2745831746021141</v>
+        <v>1.274583174602112</v>
       </c>
       <c r="L45" t="n" s="327">
-        <v>0.5041606383649208</v>
+        <v>0.5041606383649199</v>
       </c>
       <c r="M45" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="46">
@@ -10103,7 +10097,7 @@
         <v>5.0</v>
       </c>
       <c r="G46" t="n" s="322">
-        <v>45.0</v>
+        <v>10232.0</v>
       </c>
       <c r="H46" t="n" s="323">
         <v>5.0</v>
@@ -10115,13 +10109,13 @@
         <v>33.0</v>
       </c>
       <c r="K46" t="n" s="326">
-        <v>1.0171941972000418</v>
+        <v>1.0171941972000411</v>
       </c>
       <c r="L46" t="n" s="327">
         <v>0.5126109431279409</v>
       </c>
       <c r="M46" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="47">
@@ -10144,7 +10138,7 @@
         <v>6.0</v>
       </c>
       <c r="G47" t="n" s="322">
-        <v>46.0</v>
+        <v>10237.0</v>
       </c>
       <c r="H47" t="n" s="323">
         <v>5.0</v>
@@ -10156,13 +10150,13 @@
         <v>33.0</v>
       </c>
       <c r="K47" t="n" s="326">
-        <v>0.7428250324180992</v>
+        <v>0.7428250324181027</v>
       </c>
       <c r="L47" t="n" s="327">
         <v>0.5201119689447299</v>
       </c>
       <c r="M47" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
     <row r="48">
@@ -10185,7 +10179,7 @@
         <v>4.0</v>
       </c>
       <c r="G48" t="n" s="322">
-        <v>47.0</v>
+        <v>10238.0</v>
       </c>
       <c r="H48" t="n" s="323">
         <v>5.0</v>
@@ -10197,13 +10191,13 @@
         <v>33.0</v>
       </c>
       <c r="K48" t="n" s="326">
-        <v>0.1679123456784161</v>
+        <v>0.16791234567841737</v>
       </c>
       <c r="L48" t="n" s="327">
         <v>0.5129374642281367</v>
       </c>
       <c r="M48" t="n" s="328">
-        <v>0.8579808987053144</v>
+        <v>0.8579808987053141</v>
       </c>
     </row>
   </sheetData>
